--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_40.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3332495.734783759</v>
+        <v>3462166.688846234</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7038602.428096631</v>
+        <v>5851605.615330305</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2140259.185152219</v>
+        <v>864456.6793124479</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5480881.158439268</v>
+        <v>5782265.986264044</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>4.641001266096112</v>
+        <v>166.7669974553112</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>345.4765430722618</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -747,10 +749,10 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>105.9202115588047</v>
+        <v>2.926053662836146</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -789,7 +791,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -820,22 +822,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>75.83882915945181</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>109.8060998148621</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +898,7 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
         <v>0.4192906078700389</v>
@@ -905,7 +907,7 @@
         <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>196.9346580978578</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -914,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>16.8879179693429</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028015</v>
+        <v>115.7281862028016</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>25.22320578422841</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>73.16875001652673</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1138,22 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>22.78689743366792</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -1190,16 +1192,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>87.9139625705677</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1293,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>34.18905701538058</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>33.25323073653959</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>376.6200261415065</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>376.5244030535245</v>
       </c>
       <c r="D11" t="n">
         <v>370.920348881532</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019343</v>
+        <v>380.6978716019342</v>
       </c>
       <c r="F11" t="n">
         <v>387.3211661995113</v>
@@ -1385,10 +1387,10 @@
         <v>375.1420595397581</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722211</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975952</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>104.4293227275021</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>190.4854774862717</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>224.9909450967469</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>316.8402373905461</v>
       </c>
       <c r="W11" t="n">
-        <v>337.5472008905536</v>
+        <v>350.4237561298451</v>
       </c>
       <c r="X11" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263989</v>
       </c>
       <c r="Y11" t="n">
         <v>367.4283645950528</v>
@@ -1525,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>156.3237676037659</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>92.19794998402938</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H13" t="n">
-        <v>25.19739676090766</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037904</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501629</v>
       </c>
       <c r="S13" t="n">
         <v>155.0289087125508</v>
@@ -1582,19 +1584,19 @@
         <v>207.6543099067269</v>
       </c>
       <c r="U13" t="n">
-        <v>250.4712242529991</v>
+        <v>250.471224252999</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835353</v>
+        <v>241.6479458835352</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198764</v>
+        <v>246.7800261198763</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>202.151433840692</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C14" t="n">
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>370.920348881532</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>387.3211661995113</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>375.1420595397581</v>
       </c>
       <c r="H14" t="n">
         <v>278.3004706722212</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
         <v>224.990945096747</v>
@@ -1673,7 +1675,7 @@
         <v>367.138022126399</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950535</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D16" t="n">
-        <v>2.193637658374298</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
         <v>129.8027652540257</v>
@@ -1783,7 +1785,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I16" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1822,13 +1824,13 @@
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>11.09253915145995</v>
       </c>
       <c r="Y16" t="n">
         <v>192.9893998987849</v>
@@ -1862,7 +1864,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1897,7 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862723</v>
       </c>
       <c r="U17" t="n">
         <v>224.990945096747</v>
@@ -1999,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>128.4007565039811</v>
+        <v>44.24408127232414</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>118.6124389162599</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.68443004791949</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S19" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V19" t="n">
         <v>241.6479458835353</v>
@@ -2099,7 +2101,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>367.138022126399</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950535</v>
       </c>
     </row>
     <row r="21">
@@ -2239,10 +2241,10 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>124.3478839304528</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.83303310737737</v>
       </c>
       <c r="E22" t="n">
         <v>129.8027652540257</v>
@@ -2251,13 +2253,13 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
         <v>192.9893998987849</v>
@@ -2336,7 +2338,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975957</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>104.4293227275031</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T23" t="n">
         <v>190.4854774862718</v>
@@ -2479,13 +2481,13 @@
         <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F25" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2494,7 +2496,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I25" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501636</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S25" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>102.9489293585584</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>241.6479458835353</v>
@@ -2539,10 +2541,10 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X25" t="n">
-        <v>34.16107893240886</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C26" t="n">
-        <v>406.0233447798626</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>278.3004706722205</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>55.98930332975963</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7677368882639</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="27">
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.0689670315721</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>54.92104941501641</v>
       </c>
       <c r="S28" t="n">
-        <v>184.5278504388888</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.6077930059089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332976053</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2950,22 +2952,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>53.26673783777522</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501635</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T31" t="n">
-        <v>182.4421108994317</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
@@ -3016,7 +3018,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3049,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,10 +3094,10 @@
         <v>350.4237561298451</v>
       </c>
       <c r="X32" t="n">
-        <v>367.1380221263995</v>
+        <v>367.138022126399</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950535</v>
       </c>
     </row>
     <row r="33">
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>156.323767603766</v>
+        <v>95.13758317985115</v>
       </c>
       <c r="C34" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G34" t="n">
         <v>136.078945437374</v>
@@ -3205,7 +3207,7 @@
         <v>118.6124389162599</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>250.4712242529991</v>
@@ -3250,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>43.53515929749678</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
         <v>192.9893998987849</v>
@@ -3284,7 +3286,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
         <v>139.8834969875627</v>
@@ -3436,10 +3438,10 @@
         <v>133.4858729041767</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>241.3296616585428</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>220.2726480253731</v>
       </c>
       <c r="W37" t="n">
         <v>246.7800261198764</v>
@@ -3509,7 +3511,7 @@
         <v>370.920348881532</v>
       </c>
       <c r="E38" t="n">
-        <v>380.6978716019343</v>
+        <v>380.697871601935</v>
       </c>
       <c r="F38" t="n">
         <v>387.3211661995113</v>
@@ -3521,7 +3523,7 @@
         <v>278.3004706722212</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975958</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>156.323767603766</v>
+        <v>59.64309870642131</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S40" t="n">
-        <v>34.15922884064309</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>376.6200261415066</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>376.5244030535246</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>380.6978716019343</v>
+        <v>187.6971066458113</v>
       </c>
       <c r="F41" t="n">
-        <v>387.3211661995113</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>375.1420595397581</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>278.3004706722212</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>55.98930332975957</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.911247781561082</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>316.8402373905461</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>367.138022126399</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3904,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>129.8027652540257</v>
+        <v>93.44891486807066</v>
       </c>
       <c r="F43" t="n">
-        <v>133.4858729041767</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5341867847698109</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>118.6124389162599</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>155.0289087125508</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>206.4614817925755</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4028,7 +4030,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
@@ -4040,10 +4042,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>195.7338082182698</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -4150,10 +4152,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>28.15278964062453</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>198.7217388170288</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.6830684215697</v>
+        <v>951.3643326755794</v>
       </c>
       <c r="C2" t="n">
-        <v>968.5988817752439</v>
+        <v>541.2397419888495</v>
       </c>
       <c r="D2" t="n">
-        <v>564.1349518683044</v>
+        <v>540.816216122314</v>
       </c>
       <c r="E2" t="n">
-        <v>553.8351404256051</v>
+        <v>530.5164046796148</v>
       </c>
       <c r="F2" t="n">
-        <v>132.8047283792926</v>
+        <v>513.5263966737064</v>
       </c>
       <c r="G2" t="n">
-        <v>128.1168483125289</v>
+        <v>345.0748840925839</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>118.7312222285946</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>541.5402578923304</v>
       </c>
       <c r="L2" t="n">
-        <v>812.7934917636817</v>
+        <v>541.5402578923304</v>
       </c>
       <c r="M2" t="n">
-        <v>812.7934917636817</v>
+        <v>541.5402578923304</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>541.5402578923304</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>964.3492935560662</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>1387.158329219802</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R2" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S2" t="n">
-        <v>1952.973206274203</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221062</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="U2" t="n">
-        <v>1730.766722221062</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="V2" t="n">
-        <v>1381.800517097565</v>
+        <v>1358.481781351575</v>
       </c>
       <c r="W2" t="n">
-        <v>1381.800517097565</v>
+        <v>1358.481781351575</v>
       </c>
       <c r="X2" t="n">
-        <v>1381.800517097565</v>
+        <v>1358.481781351575</v>
       </c>
       <c r="Y2" t="n">
-        <v>980.8638440456551</v>
+        <v>957.5451082996648</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>500.0028458641201</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>366.0077746130658</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>249.1106168324582</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>128.6178008247862</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>128.6178008247862</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>125.6621910643456</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>54.9149781000617</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>34.16638672030188</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>439.8922290238866</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>439.8922290238866</v>
       </c>
       <c r="N3" t="n">
-        <v>1207.22713412386</v>
+        <v>862.7012646876224</v>
       </c>
       <c r="O3" t="n">
-        <v>1207.22713412386</v>
+        <v>1285.510300351358</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="Q3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R3" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="S3" t="n">
-        <v>1980.264271594411</v>
+        <v>1600.329326129403</v>
       </c>
       <c r="T3" t="n">
-        <v>1820.922407781419</v>
+        <v>1600.329326129403</v>
       </c>
       <c r="U3" t="n">
-        <v>1623.571596919638</v>
+        <v>1402.978515267621</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1189.266988260655</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>976.0338199969839</v>
       </c>
       <c r="X3" t="n">
-        <v>1020.300919787893</v>
+        <v>799.7078381358767</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>640.3058784997068</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1211.437729455944</v>
+        <v>1101.003898620924</v>
       </c>
       <c r="C4" t="n">
-        <v>1040.344357017661</v>
+        <v>929.9105261826403</v>
       </c>
       <c r="D4" t="n">
-        <v>1040.344357017661</v>
+        <v>770.4158815055503</v>
       </c>
       <c r="E4" t="n">
-        <v>1040.344357017661</v>
+        <v>609.5050663738698</v>
       </c>
       <c r="F4" t="n">
-        <v>875.7132311282519</v>
+        <v>444.8739404844611</v>
       </c>
       <c r="G4" t="n">
-        <v>708.4628400537953</v>
+        <v>444.8739404844611</v>
       </c>
       <c r="H4" t="n">
-        <v>558.8553848592519</v>
+        <v>295.2664852899177</v>
       </c>
       <c r="I4" t="n">
-        <v>558.8553848592519</v>
+        <v>178.9204393942438</v>
       </c>
       <c r="J4" t="n">
-        <v>572.9379342644625</v>
+        <v>193.0029887994543</v>
       </c>
       <c r="K4" t="n">
-        <v>727.4902619867005</v>
+        <v>347.5553165216923</v>
       </c>
       <c r="L4" t="n">
-        <v>987.3873622667611</v>
+        <v>607.4524168017529</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.651418707254</v>
+        <v>896.7164732422461</v>
       </c>
       <c r="N4" t="n">
-        <v>1557.490201101505</v>
+        <v>1177.555255636496</v>
       </c>
       <c r="O4" t="n">
-        <v>1817.050811427979</v>
+        <v>1437.115865962971</v>
       </c>
       <c r="P4" t="n">
-        <v>2022.726251677591</v>
+        <v>1642.791306212583</v>
       </c>
       <c r="Q4" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.319336015094</v>
       </c>
       <c r="R4" t="n">
-        <v>2088.254281480102</v>
+        <v>1623.046617690494</v>
       </c>
       <c r="S4" t="n">
-        <v>2011.649403541262</v>
+        <v>1436.654849570404</v>
       </c>
       <c r="T4" t="n">
-        <v>2011.649403541262</v>
+        <v>1436.654849570404</v>
       </c>
       <c r="U4" t="n">
-        <v>1728.851256087386</v>
+        <v>1325.739597232159</v>
       </c>
       <c r="V4" t="n">
-        <v>1728.851256087386</v>
+        <v>1325.739597232159</v>
       </c>
       <c r="W4" t="n">
-        <v>1449.781591596261</v>
+        <v>1325.739597232159</v>
       </c>
       <c r="X4" t="n">
-        <v>1211.437729455944</v>
+        <v>1325.739597232159</v>
       </c>
       <c r="Y4" t="n">
-        <v>1211.437729455944</v>
+        <v>1101.003898620924</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>795.1993990705208</v>
+        <v>1467.525454856486</v>
       </c>
       <c r="C5" t="n">
-        <v>789.115212424195</v>
+        <v>1057.400864169756</v>
       </c>
       <c r="D5" t="n">
-        <v>788.6916865576595</v>
+        <v>1056.977338303221</v>
       </c>
       <c r="E5" t="n">
-        <v>778.3918751149603</v>
+        <v>1046.677526860522</v>
       </c>
       <c r="F5" t="n">
-        <v>761.4018671090519</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>352.673583001884</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4568,7 +4570,7 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L5" t="n">
         <v>812.7934917636817</v>
@@ -4580,10 +4582,10 @@
         <v>812.7934917636817</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4595,22 +4597,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>1935.914703274867</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>1935.914703274867</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>1586.077148611347</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W5" t="n">
-        <v>1202.316847746516</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X5" t="n">
-        <v>1202.316847746516</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y5" t="n">
-        <v>801.3801746946062</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="6">
@@ -4623,46 +4625,46 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1014.414276561226</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433489</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q6" t="n">
         <v>2058.694762117472</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>545.0117326709172</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="C7" t="n">
-        <v>519.5337470302825</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="D7" t="n">
-        <v>519.5337470302825</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="E7" t="n">
-        <v>358.622931898602</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1331.615243227154</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.817095773278</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.817095773278</v>
+        <v>986.042928482942</v>
       </c>
       <c r="W7" t="n">
-        <v>769.7474312821525</v>
+        <v>706.9732639918163</v>
       </c>
       <c r="X7" t="n">
-        <v>769.7474312821525</v>
+        <v>468.6294018514998</v>
       </c>
       <c r="Y7" t="n">
-        <v>545.0117326709172</v>
+        <v>468.6294018514998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>801.2264591794285</v>
+        <v>1378.723472461974</v>
       </c>
       <c r="C8" t="n">
-        <v>795.1422725331026</v>
+        <v>1372.639285815648</v>
       </c>
       <c r="D8" t="n">
-        <v>794.7187466665672</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E8" t="n">
-        <v>784.4189352238679</v>
+        <v>553.8351404256051</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>132.8047283792926</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="N8" t="n">
-        <v>1846.479361096332</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q8" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1866.047797426961</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>1608.987305686471</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1608.987305686471</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="W8" t="n">
-        <v>1608.987305686471</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="X8" t="n">
-        <v>1208.343907855424</v>
+        <v>1384.904248086059</v>
       </c>
       <c r="Y8" t="n">
-        <v>807.4072348035139</v>
+        <v>1384.904248086059</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>1207.227134123859</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M9" t="n">
-        <v>1708.850297433489</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433489</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433489</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.1638028771367</v>
+        <v>655.949539715106</v>
       </c>
       <c r="C10" t="n">
-        <v>503.1638028771367</v>
+        <v>484.8561672768225</v>
       </c>
       <c r="D10" t="n">
-        <v>503.1638028771367</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="E10" t="n">
-        <v>342.2529877454562</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="F10" t="n">
-        <v>342.2529877454562</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198193</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U10" t="n">
-        <v>1203.093116471976</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V10" t="n">
-        <v>929.2073714114977</v>
+        <v>1068.384944720386</v>
       </c>
       <c r="W10" t="n">
-        <v>929.2073714114977</v>
+        <v>1068.384944720386</v>
       </c>
       <c r="X10" t="n">
-        <v>690.8635092711811</v>
+        <v>1068.384944720386</v>
       </c>
       <c r="Y10" t="n">
-        <v>690.8635092711811</v>
+        <v>843.6492461091503</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1927.245405047368</v>
+        <v>2340.613014133292</v>
       </c>
       <c r="C11" t="n">
-        <v>1927.245405047368</v>
+        <v>1960.285334281247</v>
       </c>
       <c r="D11" t="n">
-        <v>1552.578385975114</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E11" t="n">
-        <v>1168.035081326695</v>
+        <v>1201.075010560574</v>
       </c>
       <c r="F11" t="n">
-        <v>776.8015801150676</v>
+        <v>809.8415093489461</v>
       </c>
       <c r="G11" t="n">
-        <v>397.8702068425847</v>
+        <v>430.9101360764625</v>
       </c>
       <c r="H11" t="n">
-        <v>116.7586203049875</v>
+        <v>149.7985495388647</v>
       </c>
       <c r="I11" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>314.3892399244997</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K11" t="n">
-        <v>314.3892399244997</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L11" t="n">
-        <v>1026.980639736738</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>1772.002274388963</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>2517.023909041188</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>2969.631777147708</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P11" t="n">
-        <v>2969.631777147708</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>2969.631777147708</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>3010.188422837273</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>3010.188422837273</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T11" t="n">
-        <v>3010.188422837273</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U11" t="n">
-        <v>3010.188422837273</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>3010.188422837273</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W11" t="n">
-        <v>2669.231654260956</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X11" t="n">
-        <v>2298.385167264593</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y11" t="n">
-        <v>1927.245405047368</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1642.530068873307</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C12" t="n">
-        <v>1508.534997622253</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D12" t="n">
-        <v>1391.637839841645</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E12" t="n">
-        <v>1271.145023833973</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>1162.185144016478</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
-        <v>1055.195031330817</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H12" t="n">
-        <v>984.4478183665327</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>963.6992269867729</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>1156.512084549406</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>1156.512084549406</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L12" t="n">
-        <v>1156.512084549406</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M12" t="n">
-        <v>1901.533719201631</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N12" t="n">
-        <v>2276.671812928748</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O12" t="n">
-        <v>2980.628903474643</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>2980.628903474643</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2980.628903474643</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
-        <v>3010.188422837273</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S12" t="n">
-        <v>2902.198412951582</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T12" t="n">
-        <v>2742.85654913859</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U12" t="n">
-        <v>2545.505738276809</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V12" t="n">
-        <v>2331.794211269842</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W12" t="n">
-        <v>2118.561043006171</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X12" t="n">
-        <v>1942.235061145064</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y12" t="n">
-        <v>1782.833101508894</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.0390344925671</v>
+        <v>530.1860997593524</v>
       </c>
       <c r="C13" t="n">
-        <v>307.0390344925671</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="D13" t="n">
-        <v>307.0390344925671</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="E13" t="n">
-        <v>307.0390344925671</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="F13" t="n">
-        <v>172.2048194378432</v>
+        <v>437.0568573512419</v>
       </c>
       <c r="G13" t="n">
-        <v>172.2048194378432</v>
+        <v>299.6033771114702</v>
       </c>
       <c r="H13" t="n">
-        <v>146.7529035177345</v>
+        <v>179.7928327516117</v>
       </c>
       <c r="I13" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>103.4902701710306</v>
+        <v>136.530199404908</v>
       </c>
       <c r="K13" t="n">
-        <v>287.2465502023432</v>
+        <v>320.2864794362206</v>
       </c>
       <c r="L13" t="n">
-        <v>576.3476027914784</v>
+        <v>609.3875320253559</v>
       </c>
       <c r="M13" t="n">
-        <v>894.8156115410463</v>
+        <v>927.8555407749238</v>
       </c>
       <c r="N13" t="n">
-        <v>1204.858346244371</v>
+        <v>1237.898275478249</v>
       </c>
       <c r="O13" t="n">
-        <v>1493.62290887992</v>
+        <v>1526.662838113798</v>
       </c>
       <c r="P13" t="n">
-        <v>1728.502301438607</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q13" t="n">
-        <v>1823.234283550192</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1823.234283550192</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S13" t="n">
-        <v>1666.639426264788</v>
+        <v>1644.20354800875</v>
       </c>
       <c r="T13" t="n">
-        <v>1456.887598076175</v>
+        <v>1434.451719820137</v>
       </c>
       <c r="U13" t="n">
-        <v>1203.886361456983</v>
+        <v>1181.450483200946</v>
       </c>
       <c r="V13" t="n">
-        <v>959.7975272311902</v>
+        <v>937.3616489751525</v>
       </c>
       <c r="W13" t="n">
-        <v>710.5247735747494</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="X13" t="n">
-        <v>501.9778222691176</v>
+        <v>688.0888953187118</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.0390344925671</v>
+        <v>688.0888953187118</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1162.741191343048</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>782.4135114910032</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D14" t="n">
-        <v>782.4135114910032</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E14" t="n">
-        <v>397.8702068425847</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>397.8702068425847</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G14" t="n">
-        <v>397.8702068425847</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H14" t="n">
-        <v>116.7586203049875</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I14" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J14" t="n">
-        <v>314.3892399244997</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K14" t="n">
-        <v>852.5487410335393</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L14" t="n">
-        <v>1565.140140845777</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M14" t="n">
-        <v>2310.161775498002</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N14" t="n">
-        <v>2310.161775498002</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>2953.792631915107</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
-        <v>2953.792631915107</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q14" t="n">
-        <v>2969.631777147708</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R14" t="n">
-        <v>3010.188422837273</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>3010.188422837273</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T14" t="n">
-        <v>3010.188422837273</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U14" t="n">
-        <v>2782.924841931468</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V14" t="n">
-        <v>2462.884198102633</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>2108.920808072487</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X14" t="n">
-        <v>1738.074321076124</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y14" t="n">
-        <v>1366.934558858899</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>739.0346103432798</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C15" t="n">
-        <v>605.0395390922255</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D15" t="n">
-        <v>488.1423813116179</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E15" t="n">
-        <v>367.6495653039459</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F15" t="n">
-        <v>258.6896854864505</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G15" t="n">
-        <v>151.6995728007892</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H15" t="n">
-        <v>80.95235983650528</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I15" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>253.0166260193787</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>253.0166260193787</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L15" t="n">
-        <v>914.1047979386669</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M15" t="n">
-        <v>914.1047979386669</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N15" t="n">
-        <v>914.1047979386669</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O15" t="n">
-        <v>1618.061888484561</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P15" t="n">
-        <v>2077.133444944615</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q15" t="n">
-        <v>2077.133444944615</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R15" t="n">
-        <v>2106.692964307245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S15" t="n">
-        <v>1998.702954421554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T15" t="n">
-        <v>1839.361090608563</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U15" t="n">
-        <v>1642.010279746781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V15" t="n">
-        <v>1428.298752739815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W15" t="n">
-        <v>1215.065584476144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X15" t="n">
-        <v>1038.739602615036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y15" t="n">
-        <v>879.3376429788665</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>672.1808430836038</v>
+        <v>973.9991721489654</v>
       </c>
       <c r="C16" t="n">
-        <v>672.1808430836038</v>
+        <v>832.7027105453667</v>
       </c>
       <c r="D16" t="n">
-        <v>669.9650474690843</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E16" t="n">
-        <v>538.8511431720887</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F16" t="n">
-        <v>404.0169281173647</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G16" t="n">
-        <v>266.563447877593</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H16" t="n">
-        <v>146.7529035177345</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I16" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J16" t="n">
-        <v>103.4902701710306</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>287.2465502023432</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L16" t="n">
-        <v>576.3476027914784</v>
+        <v>609.3875320253558</v>
       </c>
       <c r="M16" t="n">
-        <v>894.8156115410463</v>
+        <v>927.8555407749236</v>
       </c>
       <c r="N16" t="n">
-        <v>1204.858346244371</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O16" t="n">
-        <v>1493.62290887992</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P16" t="n">
-        <v>1728.502301438607</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q16" t="n">
-        <v>1823.234283550192</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1823.234283550192</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S16" t="n">
-        <v>1823.234283550192</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T16" t="n">
-        <v>1613.482455361579</v>
+        <v>1591.046577105541</v>
       </c>
       <c r="U16" t="n">
-        <v>1360.481218742388</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="V16" t="n">
-        <v>1116.392384516595</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="W16" t="n">
-        <v>867.1196308601543</v>
+        <v>1338.04534048635</v>
       </c>
       <c r="X16" t="n">
-        <v>867.1196308601543</v>
+        <v>1326.840755484875</v>
       </c>
       <c r="Y16" t="n">
-        <v>672.1808430836038</v>
+        <v>1131.901967708325</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5497,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D17" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E17" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.8415093489459</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G17" t="n">
-        <v>430.9101360764629</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H17" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I17" t="n">
         <v>93.2436976906228</v>
@@ -5543,22 +5545,22 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941469</v>
+        <v>4364.291146941468</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W17" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X17" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y17" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="18">
@@ -5592,19 +5594,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M18" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N18" t="n">
-        <v>1402.950983437843</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O18" t="n">
         <v>1760.328909494509</v>
@@ -5647,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>887.4500370879764</v>
+        <v>533.8759098929697</v>
       </c>
       <c r="C19" t="n">
-        <v>746.1535754843777</v>
+        <v>392.579448289371</v>
       </c>
       <c r="D19" t="n">
-        <v>616.4558416419726</v>
+        <v>347.8884571052052</v>
       </c>
       <c r="E19" t="n">
-        <v>485.3419373449769</v>
+        <v>347.8884571052052</v>
       </c>
       <c r="F19" t="n">
-        <v>350.5077222902531</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G19" t="n">
         <v>213.0542420504813</v>
@@ -5695,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.522263240717</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S19" t="n">
-        <v>1692.927405955312</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T19" t="n">
-        <v>1692.927405955312</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U19" t="n">
-        <v>1692.927405955312</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V19" t="n">
-        <v>1448.838571729518</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W19" t="n">
-        <v>1448.838571729518</v>
+        <v>937.361648975152</v>
       </c>
       <c r="X19" t="n">
-        <v>1240.291620423887</v>
+        <v>728.8146976695202</v>
       </c>
       <c r="Y19" t="n">
-        <v>1045.352832647336</v>
+        <v>533.8759098929697</v>
       </c>
     </row>
     <row r="20">
@@ -5729,16 +5731,16 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F20" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G20" t="n">
         <v>430.910136076462</v>
@@ -5750,10 +5752,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5765,7 +5767,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
         <v>4300.467232046283</v>
@@ -5777,22 +5779,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T20" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U20" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V20" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.037282963095</v>
@@ -5829,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N21" t="n">
-        <v>741.8628115185547</v>
+        <v>966.9017898022406</v>
       </c>
       <c r="O21" t="n">
-        <v>1445.819902064449</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>828.6088998650351</v>
+        <v>493.0470461511873</v>
       </c>
       <c r="C22" t="n">
-        <v>703.0049767029616</v>
+        <v>493.0470461511873</v>
       </c>
       <c r="D22" t="n">
-        <v>703.0049767029616</v>
+        <v>445.7409521033313</v>
       </c>
       <c r="E22" t="n">
-        <v>571.8910724059659</v>
+        <v>314.6270478063357</v>
       </c>
       <c r="F22" t="n">
-        <v>437.0568573512421</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="G22" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="H22" t="n">
         <v>179.7928327516118</v>
@@ -5935,25 +5937,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S22" t="n">
-        <v>1644.203548008749</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T22" t="n">
-        <v>1434.451719820136</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="U22" t="n">
-        <v>1181.450483200945</v>
+        <v>1547.797168674963</v>
       </c>
       <c r="V22" t="n">
-        <v>1181.450483200945</v>
+        <v>1303.70833444917</v>
       </c>
       <c r="W22" t="n">
-        <v>1181.450483200945</v>
+        <v>1054.435580792729</v>
       </c>
       <c r="X22" t="n">
-        <v>1181.450483200945</v>
+        <v>845.8886294870973</v>
       </c>
       <c r="Y22" t="n">
-        <v>986.5116954243947</v>
+        <v>650.9498417105468</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489449</v>
       </c>
       <c r="G23" t="n">
         <v>430.910136076462</v>
@@ -5987,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K23" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6002,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6032,7 +6034,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y23" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="24">
@@ -6075,10 +6077,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>705.431787612198</v>
+        <v>3291.375279698146</v>
       </c>
       <c r="C25" t="n">
-        <v>564.1353260085993</v>
+        <v>3150.078818094547</v>
       </c>
       <c r="D25" t="n">
-        <v>434.4375921661942</v>
+        <v>3150.078818094547</v>
       </c>
       <c r="E25" t="n">
-        <v>434.4375921661942</v>
+        <v>3018.964913797551</v>
       </c>
       <c r="F25" t="n">
-        <v>299.6033771114703</v>
+        <v>3018.964913797551</v>
       </c>
       <c r="G25" t="n">
-        <v>299.6033771114703</v>
+        <v>3018.964913797551</v>
       </c>
       <c r="H25" t="n">
-        <v>179.7928327516118</v>
+        <v>2899.154369437693</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>2899.154369437693</v>
       </c>
       <c r="J25" t="n">
-        <v>136.5301994049079</v>
+        <v>2942.440871151978</v>
       </c>
       <c r="K25" t="n">
-        <v>320.2864794362205</v>
+        <v>3126.197151183291</v>
       </c>
       <c r="L25" t="n">
-        <v>609.3875320253558</v>
+        <v>3415.298203772426</v>
       </c>
       <c r="M25" t="n">
-        <v>927.8555407749236</v>
+        <v>3733.766212521994</v>
       </c>
       <c r="N25" t="n">
-        <v>1237.898275478248</v>
+        <v>4043.808947225319</v>
       </c>
       <c r="O25" t="n">
-        <v>1526.662838113797</v>
+        <v>4332.573509860867</v>
       </c>
       <c r="P25" t="n">
-        <v>1761.542230672484</v>
+        <v>4567.452902419554</v>
       </c>
       <c r="Q25" t="n">
-        <v>1856.27421278407</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1800.798405294154</v>
+        <v>4606.709077041224</v>
       </c>
       <c r="S25" t="n">
-        <v>1644.203548008749</v>
+        <v>4450.114219755819</v>
       </c>
       <c r="T25" t="n">
-        <v>1644.203548008749</v>
+        <v>4346.125402221922</v>
       </c>
       <c r="U25" t="n">
-        <v>1391.202311389558</v>
+        <v>4346.125402221922</v>
       </c>
       <c r="V25" t="n">
-        <v>1147.113477163765</v>
+        <v>4102.036567996129</v>
       </c>
       <c r="W25" t="n">
-        <v>897.8407235073241</v>
+        <v>3852.763814339688</v>
       </c>
       <c r="X25" t="n">
-        <v>863.3345831715576</v>
+        <v>3644.216863034056</v>
       </c>
       <c r="Y25" t="n">
-        <v>863.3345831715576</v>
+        <v>3449.278075257505</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6251,25 +6253,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>212.9817385874103</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>874.0699105066985</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>874.0699105066985</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>874.0699105066985</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>1578.027001052593</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.2436976906228</v>
+        <v>531.3909766423324</v>
       </c>
       <c r="C28" t="n">
-        <v>93.2436976906228</v>
+        <v>531.3909766423324</v>
       </c>
       <c r="D28" t="n">
-        <v>93.2436976906228</v>
+        <v>401.6932427999271</v>
       </c>
       <c r="E28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="F28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="G28" t="n">
-        <v>93.2436976906228</v>
+        <v>299.6033771114704</v>
       </c>
       <c r="H28" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S28" t="n">
-        <v>1350.978107866783</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T28" t="n">
-        <v>1111.429368843485</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U28" t="n">
-        <v>828.6312213896092</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V28" t="n">
-        <v>554.7454763291312</v>
+        <v>1147.113477163765</v>
       </c>
       <c r="W28" t="n">
-        <v>275.6758118380055</v>
+        <v>897.8407235073238</v>
       </c>
       <c r="X28" t="n">
-        <v>275.6758118380055</v>
+        <v>689.2937722016919</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.2436976906228</v>
+        <v>689.2937722016919</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6445,28 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489457</v>
+        <v>809.8415093489459</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764622</v>
+        <v>430.9101360764629</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388648</v>
+        <v>149.7985495388658</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L29" t="n">
         <v>1598.180070079655</v>
@@ -6476,7 +6478,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O29" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P29" t="n">
         <v>4300.467232046283</v>
@@ -6488,10 +6490,10 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T29" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U29" t="n">
         <v>4137.027566035665</v>
@@ -6500,13 +6502,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W29" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X29" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y29" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6551,10 @@
         <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1627.989961721529</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>364.2378931366266</v>
+        <v>531.3909766423328</v>
       </c>
       <c r="C31" t="n">
-        <v>222.9414315330279</v>
+        <v>531.3909766423328</v>
       </c>
       <c r="D31" t="n">
-        <v>93.2436976906228</v>
+        <v>401.6932427999277</v>
       </c>
       <c r="E31" t="n">
-        <v>93.2436976906228</v>
+        <v>347.8884571052052</v>
       </c>
       <c r="F31" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="G31" t="n">
-        <v>93.2436976906228</v>
+        <v>213.0542420504813</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6643,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S31" t="n">
-        <v>1856.27421278407</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T31" t="n">
-        <v>1671.989252279593</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="U31" t="n">
-        <v>1418.988015660402</v>
+        <v>1391.202311389558</v>
       </c>
       <c r="V31" t="n">
-        <v>1174.899181434609</v>
+        <v>1147.113477163765</v>
       </c>
       <c r="W31" t="n">
-        <v>925.6264277781684</v>
+        <v>897.8407235073241</v>
       </c>
       <c r="X31" t="n">
-        <v>717.0794764725366</v>
+        <v>689.2937722016924</v>
       </c>
       <c r="Y31" t="n">
-        <v>522.1406886959861</v>
+        <v>689.2937722016924</v>
       </c>
     </row>
     <row r="32">
@@ -6740,7 +6742,7 @@
         <v>3463.023532176684</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y32" t="n">
         <v>2721.037282963095</v>
@@ -6786,10 +6788,10 @@
         <v>1210.13812587521</v>
       </c>
       <c r="M33" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N33" t="n">
-        <v>1578.027001052593</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O33" t="n">
         <v>1578.027001052593</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>752.6158220332526</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="C34" t="n">
-        <v>611.3193604296539</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="D34" t="n">
-        <v>481.6216265872488</v>
+        <v>703.0049767029616</v>
       </c>
       <c r="E34" t="n">
-        <v>350.5077222902531</v>
+        <v>571.8910724059659</v>
       </c>
       <c r="F34" t="n">
-        <v>350.5077222902531</v>
+        <v>437.0568573512421</v>
       </c>
       <c r="G34" t="n">
-        <v>213.0542420504813</v>
+        <v>299.6033771114703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.2436976906228</v>
+        <v>179.7928327516118</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6883,25 +6885,25 @@
         <v>1856.27421278407</v>
       </c>
       <c r="S34" t="n">
-        <v>1856.27421278407</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1646.522384595457</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U34" t="n">
-        <v>1393.521147976266</v>
+        <v>1446.678118879474</v>
       </c>
       <c r="V34" t="n">
-        <v>1149.432313750473</v>
+        <v>1202.58928465368</v>
       </c>
       <c r="W34" t="n">
-        <v>1149.432313750473</v>
+        <v>1202.58928465368</v>
       </c>
       <c r="X34" t="n">
-        <v>1105.457405369163</v>
+        <v>994.0423333480486</v>
       </c>
       <c r="Y34" t="n">
-        <v>910.5186175926121</v>
+        <v>799.1035455714981</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6916,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208991</v>
@@ -6923,16 +6925,16 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F35" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G35" t="n">
-        <v>430.9101360764619</v>
+        <v>430.910136076462</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
         <v>347.4291691583771</v>
@@ -6947,19 +6949,19 @@
         <v>2374.498661071409</v>
       </c>
       <c r="N35" t="n">
-        <v>3127.679677710025</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O35" t="n">
-        <v>3771.31053412713</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P35" t="n">
-        <v>4300.467232046281</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841574</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.184884531139</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
         <v>4556.700720159924</v>
@@ -6971,7 +6973,7 @@
         <v>4137.027566035664</v>
       </c>
       <c r="V35" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W35" t="n">
         <v>3463.023532176683</v>
@@ -6980,7 +6982,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="36">
@@ -7005,31 +7007,31 @@
         <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
-        <v>184.7395020346665</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H36" t="n">
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K36" t="n">
-        <v>741.8628115185547</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L36" t="n">
-        <v>1402.950983437843</v>
+        <v>704.368908940975</v>
       </c>
       <c r="M36" t="n">
-        <v>1402.950983437843</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P36" t="n">
         <v>2139.732893541123</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.9965568482047</v>
+        <v>767.6394927281179</v>
       </c>
       <c r="C37" t="n">
-        <v>608.700095244606</v>
+        <v>626.3430311245193</v>
       </c>
       <c r="D37" t="n">
-        <v>479.0023614022009</v>
+        <v>496.6452972821141</v>
       </c>
       <c r="E37" t="n">
-        <v>347.8884571052052</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="F37" t="n">
-        <v>213.0542420504813</v>
+        <v>230.6971779303946</v>
       </c>
       <c r="G37" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>93.24369769062278</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
         <v>136.5301994049079</v>
@@ -7117,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="S37" t="n">
-        <v>1856.27421278407</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="T37" t="n">
-        <v>1646.522384595457</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="U37" t="n">
-        <v>1402.755049586828</v>
+        <v>1800.798405294154</v>
       </c>
       <c r="V37" t="n">
-        <v>1402.755049586828</v>
+        <v>1578.300781026101</v>
       </c>
       <c r="W37" t="n">
-        <v>1153.482295930387</v>
+        <v>1329.02802736966</v>
       </c>
       <c r="X37" t="n">
-        <v>944.9353446247552</v>
+        <v>1120.481076064028</v>
       </c>
       <c r="Y37" t="n">
-        <v>749.9965568482047</v>
+        <v>925.5422882874775</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2340.61301413329</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C38" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208991</v>
+        <v>1585.618315208992</v>
       </c>
       <c r="E38" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.8415093489448</v>
+        <v>809.841509348945</v>
       </c>
       <c r="G38" t="n">
         <v>430.910136076462</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T38" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U38" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V38" t="n">
-        <v>3816.986922206829</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W38" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X38" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y38" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>741.8628115185547</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M39" t="n">
-        <v>1584.839892213121</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N39" t="n">
-        <v>1789.888428857139</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>458.5427745949822</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="C40" t="n">
-        <v>317.2463129913835</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="D40" t="n">
-        <v>317.2463129913835</v>
+        <v>224.3576019876185</v>
       </c>
       <c r="E40" t="n">
-        <v>317.2463129913835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>317.2463129913835</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7357,25 +7359,25 @@
         <v>1800.798405294154</v>
       </c>
       <c r="S40" t="n">
-        <v>1766.294133737949</v>
+        <v>1644.203548008749</v>
       </c>
       <c r="T40" t="n">
-        <v>1766.294133737949</v>
+        <v>1434.451719820136</v>
       </c>
       <c r="U40" t="n">
-        <v>1513.292897118758</v>
+        <v>1181.450483200945</v>
       </c>
       <c r="V40" t="n">
-        <v>1269.204062892965</v>
+        <v>937.361648975152</v>
       </c>
       <c r="W40" t="n">
-        <v>1019.931309236524</v>
+        <v>688.0888953187111</v>
       </c>
       <c r="X40" t="n">
-        <v>811.3843579308923</v>
+        <v>479.5419440130794</v>
       </c>
       <c r="Y40" t="n">
-        <v>616.4455701543418</v>
+        <v>284.6031562365289</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1932.906065827159</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C41" t="n">
-        <v>1552.578385975114</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D41" t="n">
-        <v>1552.578385975114</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E41" t="n">
-        <v>1168.035081326695</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>776.8015801150676</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>397.8702068425847</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>116.7586203049875</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J41" t="n">
-        <v>60.20376845674546</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K41" t="n">
-        <v>60.20376845674546</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L41" t="n">
-        <v>772.7951682689835</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M41" t="n">
-        <v>1517.816802921208</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N41" t="n">
-        <v>2262.838437573433</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O41" t="n">
-        <v>2906.469293990538</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P41" t="n">
-        <v>2969.631777147708</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q41" t="n">
-        <v>2969.631777147708</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R41" t="n">
-        <v>3010.188422837273</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>3004.217465482161</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>3004.217465482161</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>3004.217465482161</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V41" t="n">
-        <v>2684.176821653326</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W41" t="n">
-        <v>2684.176821653326</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X41" t="n">
-        <v>2313.330334656963</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y41" t="n">
-        <v>2313.330334656963</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>739.0346103432798</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C42" t="n">
-        <v>605.0395390922255</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D42" t="n">
-        <v>488.1423813116179</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E42" t="n">
-        <v>367.6495653039459</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F42" t="n">
-        <v>258.6896854864505</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G42" t="n">
-        <v>151.6995728007892</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H42" t="n">
-        <v>80.95235983650528</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I42" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>253.0166260193787</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K42" t="n">
-        <v>708.8228822846775</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L42" t="n">
-        <v>1369.911054203966</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M42" t="n">
-        <v>1369.911054203966</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N42" t="n">
-        <v>1727.288980260632</v>
+        <v>1406.216283632599</v>
       </c>
       <c r="O42" t="n">
-        <v>1727.288980260632</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P42" t="n">
-        <v>1727.288980260632</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q42" t="n">
-        <v>2077.133444944615</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R42" t="n">
-        <v>2106.692964307245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S42" t="n">
-        <v>1998.702954421554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T42" t="n">
-        <v>1839.361090608563</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U42" t="n">
-        <v>1642.010279746781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V42" t="n">
-        <v>1428.298752739815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W42" t="n">
-        <v>1215.065584476144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X42" t="n">
-        <v>1038.739602615036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y42" t="n">
-        <v>879.3376429788665</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>446.5020147792021</v>
+        <v>785.4715590457869</v>
       </c>
       <c r="C43" t="n">
-        <v>446.5020147792021</v>
+        <v>785.4715590457869</v>
       </c>
       <c r="D43" t="n">
-        <v>446.5020147792021</v>
+        <v>785.4715590457869</v>
       </c>
       <c r="E43" t="n">
-        <v>315.3881104822065</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F43" t="n">
-        <v>180.5538954274826</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G43" t="n">
-        <v>180.014312816604</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H43" t="n">
-        <v>60.20376845674546</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I43" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>103.4902701710306</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>287.2465502023432</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>576.3476027914784</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>894.8156115410463</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>1204.858346244371</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>1493.62290887992</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>1728.502301438607</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>1823.234283550192</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>1767.758476060277</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1611.163618774872</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T43" t="n">
-        <v>1401.411790586259</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U43" t="n">
-        <v>1148.410553967068</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V43" t="n">
-        <v>904.3217197412747</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W43" t="n">
-        <v>655.0489660848339</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X43" t="n">
-        <v>446.5020147792021</v>
+        <v>1197.906964051067</v>
       </c>
       <c r="Y43" t="n">
-        <v>446.5020147792021</v>
+        <v>973.1712654398312</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1276.316903305852</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="C44" t="n">
-        <v>866.1923126191222</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D44" t="n">
-        <v>866.1923126191222</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>866.1923126191222</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
-        <v>866.1923126191222</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>457.4640285119543</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>146.5555311396723</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>60.20376845674546</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>60.20376845674546</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>60.20376845674546</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>730.6615813639344</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1475.683216016159</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2119.314072433264</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2648.470770352416</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2969.631777147708</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>3010.188422837273</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2874.907347631374</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2874.907347631374</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2617.846855890884</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>2268.009301227365</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1884.249000362533</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>1884.249000362533</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1686.538082970342</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>739.0346103432798</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>605.0395390922255</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>488.1423813116179</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>367.6495653039459</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>258.6896854864505</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>151.6995728007892</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>80.95235983650528</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>721.2919403760337</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M45" t="n">
-        <v>721.2919403760337</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N45" t="n">
-        <v>1466.313575028259</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O45" t="n">
-        <v>2106.692964307245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P45" t="n">
-        <v>2106.692964307245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q45" t="n">
-        <v>2106.692964307245</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R45" t="n">
-        <v>2106.692964307245</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1998.702954421554</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1839.361090608563</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1642.010279746781</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1428.298752739815</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1215.065584476144</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1038.739602615036</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>879.3376429788665</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>487.0680846786432</v>
+        <v>584.7425299376769</v>
       </c>
       <c r="C46" t="n">
-        <v>487.0680846786432</v>
+        <v>413.6491574993933</v>
       </c>
       <c r="D46" t="n">
-        <v>487.0680846786432</v>
+        <v>254.1545128223033</v>
       </c>
       <c r="E46" t="n">
-        <v>326.1572695469627</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>326.1572695469627</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>326.1572695469627</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>176.5498143524193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>60.20376845674546</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>74.28631786195598</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>228.838645584194</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>488.7357458642545</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>777.9998023047478</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1058.838584698998</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1318.399195025472</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1524.074635275085</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1589.602665077595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1589.602665077595</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1589.602665077595</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T46" t="n">
-        <v>1561.165503824439</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U46" t="n">
-        <v>1278.367356370564</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="V46" t="n">
-        <v>1004.481611310085</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="W46" t="n">
-        <v>725.4119468189598</v>
+        <v>1235.521797083273</v>
       </c>
       <c r="X46" t="n">
-        <v>487.0680846786432</v>
+        <v>997.1779349429565</v>
       </c>
       <c r="Y46" t="n">
-        <v>487.0680846786432</v>
+        <v>772.4422363317212</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>158.7426170992602</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>516.2162236769906</v>
       </c>
       <c r="L2" t="n">
         <v>95.48539806284482</v>
@@ -7988,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>493.8215862770622</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>520.2696096295566</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>520.7291972846576</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>465.9386069457831</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>480.2732273975235</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>484.8313130037735</v>
       </c>
       <c r="P3" t="n">
-        <v>560.9496989519242</v>
+        <v>481.3394690065772</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8216,10 +8218,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
@@ -8228,13 +8230,13 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>494.099071146226</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>293.2845869185513</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,13 +8294,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>579.627854108443</v>
@@ -8307,13 +8309,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>237.1384347635734</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>392.2643757374379</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>88.85829947169823</v>
@@ -8450,22 +8452,22 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O8" t="n">
-        <v>337.4068669225207</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
@@ -8474,7 +8476,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>96.67425672622875</v>
       </c>
       <c r="M9" t="n">
-        <v>564.2543476875381</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>845.8373301663637</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>845.4593964659375</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
-        <v>550.3694403798438</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>810.1113894477356</v>
+        <v>356.0091697870508</v>
       </c>
       <c r="N12" t="n">
-        <v>432.1207607948784</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8933,19 +8935,19 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>845.8373301663637</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>106.0329409977384</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9009,7 +9011,7 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>723.8803540323523</v>
+        <v>296.6891607496966</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9021,13 +9023,13 @@
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>517.9682778917473</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9173,7 +9175,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>853.7011964521931</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
         <v>743.321953824879</v>
@@ -9240,7 +9242,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
@@ -9255,7 +9257,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>418.7392830976428</v>
+        <v>613.4997452821208</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
@@ -9477,10 +9479,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
         <v>56.11452381084905</v>
@@ -9489,19 +9491,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P21" t="n">
-        <v>401.8036014600667</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N24" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
         <v>54.25963500280375</v>
@@ -9954,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>176.7732988419765</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10197,13 +10199,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0963663600584</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>574.6635313430244</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10434,13 +10436,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>429.1692081600164</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>429.3564034215989</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
@@ -10595,7 +10597,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N35" t="n">
-        <v>853.7011964521913</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O35" t="n">
         <v>743.321953824879</v>
@@ -10604,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10662,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>213.0023571290849</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>797.4175450132245</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10841,7 +10843,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
         <v>128.2784515920617</v>
@@ -10899,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>260.3131273776065</v>
+        <v>741.5205988334646</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>845.8373301663637</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>845.4593964659375</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>157.4498513184295</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>414.1811974913926</v>
+        <v>527.9363279870926</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>88.85829947169823</v>
@@ -11294,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>770.520338504711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>845.4593964659375</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
@@ -11315,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>414.4388617681334</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11382,13 +11384,13 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>805.7404991030681</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>704.5993469585725</v>
+        <v>575.7963516000154</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -11397,7 +11399,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415066</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535246</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275022</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>224.990945096747</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>12.87655523929152</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.8834969875627</v>
+        <v>47.68554700353323</v>
       </c>
       <c r="D13" t="n">
-        <v>128.4007565039811</v>
+        <v>128.400756503981</v>
       </c>
       <c r="E13" t="n">
         <v>129.8027652540257</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>133.4858729041766</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>93.41504215535227</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925754</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="14">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174.4685923008146</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23543,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>104.4293227275022</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.4854774862718</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>126.2071188456068</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>155.0289087125508</v>
@@ -23710,13 +23712,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>206.4614817925755</v>
+        <v>195.3689426411155</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>84.15667523165695</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>129.8027652540257</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.68364371037912</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>48.23661936709686</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24127,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>15.53561305710986</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D22" t="n">
-        <v>128.4007565039811</v>
+        <v>81.56772339660371</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125508</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>206.4614817925755</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
         <v>136.078945437374</v>
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.6836437103791</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24417,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>207.6543099067269</v>
+        <v>104.7053805481685</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>172.3004028601666</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24491,16 +24493,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>28.73379822245364</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>41.88054861921404</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -24838,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>129.8027652540257</v>
+        <v>76.5360274162505</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>85.6836437103791</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>25.21219900729525</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.9893998987849</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>61.18618442391481</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501635</v>
+        <v>54.92104941501636</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
-        <v>162.9263224950787</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I37" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>155.0289087125508</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.6543099067269</v>
       </c>
       <c r="U37" t="n">
-        <v>9.141562594456332</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>241.6479458835353</v>
+        <v>21.37529785816218</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>96.68066889734465</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
         <v>118.6124389162599</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.68364371037912</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>120.8696798719077</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25631,10 +25633,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>370.920348881532</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>98.51807494594107</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>190.4854774862718</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>224.990945096747</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>350.4237561298451</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>367.4283645950528</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>139.8834969875627</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>128.4007565039811</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>65.85279211229306</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>135.5447586526042</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>36.46078111520819</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25928,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>201.193498103121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>209.0004619924404</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>81.2484271623083</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>507960.9041211687</v>
+        <v>505666.7110868355</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>400809.0856303843</v>
+        <v>503002.8058907819</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>400809.085630384</v>
+        <v>503002.8058907818</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>503002.8058907818</v>
+        <v>503002.8058907819</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>503002.805890782</v>
+        <v>503002.8058907819</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>463927.4929164791</v>
+        <v>503002.8058907819</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>503002.8058907818</v>
+        <v>503002.8058907819</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>503002.8058907817</v>
+        <v>503002.8058907819</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>503002.8058907817</v>
+        <v>503002.8058907818</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>503002.805890782</v>
+        <v>503002.8058907819</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>400809.0856303842</v>
+        <v>463927.4929164791</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>361733.7726560815</v>
+        <v>463927.4929164791</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>651529.5721298283</v>
+        <v>651529.5721298278</v>
       </c>
       <c r="C2" t="n">
-        <v>651529.5721298282</v>
+        <v>651529.572129828</v>
       </c>
       <c r="D2" t="n">
-        <v>651529.5721298283</v>
+        <v>651529.572129828</v>
       </c>
       <c r="E2" t="n">
-        <v>503817.5017852805</v>
+        <v>631397.7523692573</v>
       </c>
       <c r="F2" t="n">
-        <v>503817.5017852805</v>
+        <v>631397.7523692573</v>
       </c>
       <c r="G2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="H2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="I2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="J2" t="n">
         <v>631397.7523692573</v>
       </c>
-      <c r="H2" t="n">
-        <v>631397.7523692573</v>
-      </c>
-      <c r="I2" t="n">
-        <v>631397.7523692575</v>
-      </c>
-      <c r="J2" t="n">
-        <v>579297.3350701875</v>
-      </c>
       <c r="K2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692576</v>
       </c>
       <c r="L2" t="n">
         <v>631397.7523692573</v>
       </c>
       <c r="M2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692575</v>
       </c>
       <c r="N2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692576</v>
       </c>
       <c r="O2" t="n">
-        <v>503817.5017852805</v>
+        <v>579297.3350701876</v>
       </c>
       <c r="P2" t="n">
-        <v>451717.0844862106</v>
+        <v>579297.3350701876</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>143124.2752108466</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>30686.4608666882</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>92416.46639560575</v>
+        <v>215728.9162805136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>113196.8625508409</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>135342.0294691537</v>
       </c>
       <c r="K3" t="n">
-        <v>23599.1533810704</v>
+        <v>24445.77426110956</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>57437.41894069305</v>
+        <v>160358.4505006827</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174432.0962319951</v>
+        <v>197736.9133466364</v>
       </c>
       <c r="C4" t="n">
         <v>174432.0962319951</v>
@@ -26424,40 +26426,40 @@
         <v>174432.0962319951</v>
       </c>
       <c r="E4" t="n">
-        <v>53298.86066876487</v>
+        <v>60002.64896085229</v>
       </c>
       <c r="F4" t="n">
-        <v>53298.86066876487</v>
+        <v>60002.64896085223</v>
       </c>
       <c r="G4" t="n">
-        <v>60002.64896085222</v>
+        <v>60002.64896085224</v>
       </c>
       <c r="H4" t="n">
-        <v>60002.64896085222</v>
+        <v>60002.64896085224</v>
       </c>
       <c r="I4" t="n">
+        <v>60002.64896085224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>60002.64896085217</v>
+      </c>
+      <c r="K4" t="n">
         <v>60002.64896085223</v>
       </c>
-      <c r="J4" t="n">
-        <v>30192.61954398331</v>
-      </c>
-      <c r="K4" t="n">
-        <v>60002.64896085224</v>
-      </c>
       <c r="L4" t="n">
-        <v>60002.64896085221</v>
+        <v>60002.64896085223</v>
       </c>
       <c r="M4" t="n">
         <v>60002.64896085222</v>
       </c>
       <c r="N4" t="n">
-        <v>60002.64896085223</v>
+        <v>60002.64896085222</v>
       </c>
       <c r="O4" t="n">
-        <v>53298.86066876488</v>
+        <v>30192.61954398331</v>
       </c>
       <c r="P4" t="n">
-        <v>23488.83125189596</v>
+        <v>30192.61954398331</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>59594.05390742942</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26476,10 +26478,10 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>48234.81055911806</v>
+        <v>73345.15677686484</v>
       </c>
       <c r="F5" t="n">
-        <v>48234.81055911806</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="G5" t="n">
         <v>73345.15677686482</v>
@@ -26491,7 +26493,7 @@
         <v>73345.15677686482</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487332</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="K5" t="n">
         <v>73345.15677686482</v>
@@ -26500,16 +26502,16 @@
         <v>73345.15677686482</v>
       </c>
       <c r="M5" t="n">
-        <v>73345.15677686481</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="N5" t="n">
         <v>73345.15677686482</v>
       </c>
       <c r="O5" t="n">
-        <v>48234.81055911806</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>45754.86402712655</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>236772.9009262215</v>
+        <v>251074.3296649155</v>
       </c>
       <c r="C6" t="n">
-        <v>411728.4108193355</v>
+        <v>381041.9499526472</v>
       </c>
       <c r="D6" t="n">
-        <v>411728.4108193356</v>
+        <v>411728.4108193354</v>
       </c>
       <c r="E6" t="n">
-        <v>309867.3641617919</v>
+        <v>282321.0303510265</v>
       </c>
       <c r="F6" t="n">
-        <v>402283.8305573976</v>
+        <v>498049.9466315403</v>
       </c>
       <c r="G6" t="n">
-        <v>384853.0840806993</v>
+        <v>498049.9466315403</v>
       </c>
       <c r="H6" t="n">
         <v>498049.9466315403</v>
       </c>
       <c r="I6" t="n">
-        <v>498049.9466315405</v>
+        <v>498049.9466315403</v>
       </c>
       <c r="J6" t="n">
-        <v>341644.7044754358</v>
+        <v>362707.9171623866</v>
       </c>
       <c r="K6" t="n">
-        <v>474450.7932504699</v>
+        <v>473604.1723704311</v>
       </c>
       <c r="L6" t="n">
         <v>498049.9466315403</v>
       </c>
       <c r="M6" t="n">
-        <v>440612.5276908473</v>
+        <v>337691.4961308577</v>
       </c>
       <c r="N6" t="n">
-        <v>498049.9466315404</v>
+        <v>498049.9466315406</v>
       </c>
       <c r="O6" t="n">
-        <v>402283.8305573976</v>
+        <v>478239.505281331</v>
       </c>
       <c r="P6" t="n">
-        <v>382473.389207188</v>
+        <v>478239.505281331</v>
       </c>
     </row>
   </sheetData>
@@ -26692,37 +26694,37 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K2" t="n">
         <v>29.498941726338</v>
       </c>
       <c r="L2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26796,10 +26798,10 @@
         <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>752.5471057093182</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="F4" t="n">
-        <v>752.5471057093182</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>752.5471057093182</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>752.5471057093182</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -26914,25 +26916,25 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
+        <v>29.49894172633805</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
         <v>29.49894172633799</v>
       </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>230.4835353392927</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>412.9991154234667</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>230.4835353392925</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27153,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>29.49894172633805</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>29.49894172633799</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>94.98373636625206</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>230.4835353392927</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>412.9991154234667</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>400</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>237.8740038107849</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8626360446222634</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27467,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>102.9941578959685</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27509,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>108.689021279437</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>170.164066164475</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27618,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
@@ -27625,7 +27627,7 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>219.8854498279915</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.0965012432669</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27776,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>144.1592329296722</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -27786,13 +27788,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>197.9781375933465</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27858,22 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="E8" t="n">
-        <v>400</v>
-      </c>
-      <c r="F8" t="n">
-        <v>394.0332104921814</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>258.4252165463164</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>131.3888301483314</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
@@ -28068,16 +28070,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>237.8936568733337</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633805</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="C25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="D25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="E25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="F25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="G25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="H25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="I25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="J25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="K25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="L25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="M25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="N25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="O25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="P25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="R25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="S25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="T25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="U25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="V25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="W25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="X25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.49894172633799</v>
+        <v>29.498941726338</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>29.49894172633794</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633748</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="C40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="D40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="E40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="F40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="G40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="H40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="I40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="J40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="K40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="L40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="M40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="N40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="O40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="P40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="R40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="S40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="T40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="U40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="V40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="W40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="X40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633799</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.498941726338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -34696,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>85.41902576595226</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34708,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>409.8240831349341</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="P3" t="n">
-        <v>506.6900639491205</v>
+        <v>427.0798340037735</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34936,11 +34938,11 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
@@ -34948,13 +34950,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>203.2507825193993</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>522.0635703700256</v>
@@ -35027,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>179.3869557635734</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>29.85810036629282</v>
@@ -35170,23 +35172,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
+        <v>460.0037840019794</v>
+      </c>
+      <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O8" t="n">
-        <v>244.2170912967376</v>
-      </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
@@ -35194,7 +35196,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
+        <v>40.55973291537969</v>
+      </c>
+      <c r="M9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M9" t="n">
-        <v>506.6900639491207</v>
-      </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>752.5471057093182</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>752.5471057093182</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
-        <v>457.1796647540607</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>752.5471057093182</v>
+        <v>298.4448860486334</v>
       </c>
       <c r="N12" t="n">
-        <v>378.9273674011284</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533858</v>
       </c>
       <c r="K13" t="n">
-        <v>185.6124040720329</v>
+        <v>185.612404072033</v>
       </c>
       <c r="L13" t="n">
         <v>292.0212652415507</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227958</v>
+        <v>321.6848573227959</v>
       </c>
       <c r="N13" t="n">
         <v>313.174479498308</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995443</v>
       </c>
       <c r="P13" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978335</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,19 +35655,19 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>752.5471057093182</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.99913659858632</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35729,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>667.7658302215033</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35741,13 +35743,13 @@
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>463.7086428889436</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35823,7 +35825,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>760.7889056955738</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
         <v>650.1321781990958</v>
@@ -35960,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
@@ -35975,7 +35977,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>360.9878040976428</v>
+        <v>555.7482662821208</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36060,7 +36062,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P21" t="n">
-        <v>347.543966457263</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36297,7 +36299,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N24" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36534,7 +36536,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978329</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>120.9475160573611</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>14.22479737900053</v>
+        <v>43.72373910533847</v>
       </c>
       <c r="K28" t="n">
-        <v>156.1134623456949</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L28" t="n">
-        <v>262.5223235152127</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M28" t="n">
-        <v>292.1859155964578</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N28" t="n">
-        <v>283.67553777197</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O28" t="n">
-        <v>262.1824346732062</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P28" t="n">
-        <v>207.7529699491034</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q28" t="n">
-        <v>66.18992909344529</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36917,13 +36919,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>547.9029729663084</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>516.9120523430244</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37154,13 +37156,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>371.6049244215989</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
@@ -37245,7 +37247,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37315,7 +37317,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N35" t="n">
-        <v>760.788905695572</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O35" t="n">
         <v>650.1321781990958</v>
@@ -37324,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>156.8878333182358</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>744.2241516194746</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37482,7 +37484,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37561,7 +37563,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
         <v>40.9663087773382</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>207.1197339838565</v>
+        <v>688.3272054397147</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37719,7 +37721,7 @@
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978328</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>752.5471057093182</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>752.5471057093182</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>63.8004880375453</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>360.9878040976426</v>
+        <v>474.7429345933426</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>29.85810036629282</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72373910533852</v>
+        <v>14.22479737900053</v>
       </c>
       <c r="K43" t="n">
-        <v>185.6124040720329</v>
+        <v>156.1134623456949</v>
       </c>
       <c r="L43" t="n">
-        <v>292.0212652415507</v>
+        <v>262.5223235152127</v>
       </c>
       <c r="M43" t="n">
-        <v>321.6848573227958</v>
+        <v>292.1859155964578</v>
       </c>
       <c r="N43" t="n">
-        <v>313.174479498308</v>
+        <v>283.67553777197</v>
       </c>
       <c r="O43" t="n">
-        <v>291.6813763995442</v>
+        <v>262.1824346732062</v>
       </c>
       <c r="P43" t="n">
-        <v>237.2519116754414</v>
+        <v>207.7529699491034</v>
       </c>
       <c r="Q43" t="n">
-        <v>95.68887081978329</v>
+        <v>66.18992909344529</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>677.2301140476656</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>752.5471057093182</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
@@ -38035,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>324.4050573689814</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38102,13 +38104,13 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>752.5471057093182</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>646.8478679585725</v>
+        <v>518.0448726000154</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_2_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3462166.688846234</v>
+        <v>3461440.08997501</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5851605.615330305</v>
+        <v>5851605.615330298</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>864456.6793124479</v>
+        <v>864456.6793124484</v>
       </c>
     </row>
     <row r="9">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>166.7669974553112</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>13.19189402605195</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>18.67042496042784</v>
       </c>
       <c r="C3" t="n">
-        <v>132.6551205385437</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>115.7281862028015</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>2.926053662836146</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
         <v>70.03974083464111</v>
@@ -791,7 +791,7 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>157.7484451748619</v>
       </c>
       <c r="U3" t="n">
         <v>195.3773027531635</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
@@ -831,13 +831,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>75.95794553299389</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>109.8060998148621</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
         <v>222.4883416251229</v>
@@ -904,19 +904,19 @@
         <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>196.9346580978578</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>38.82863514657915</v>
       </c>
     </row>
     <row r="6">
@@ -980,7 +980,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D6" t="n">
-        <v>115.7281862028016</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E6" t="n">
         <v>119.2878878475953</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>73.16875001652673</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>88.74530411691485</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>6.023344779862555</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>78.79873889485462</v>
       </c>
       <c r="G8" t="n">
         <v>4.641001266096112</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>87.9139625705677</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1299,16 +1299,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>33.25323073653959</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>376.6200261415065</v>
+        <v>376.6200261415066</v>
       </c>
       <c r="C11" t="n">
-        <v>376.5244030535245</v>
+        <v>376.5244030535246</v>
       </c>
       <c r="D11" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E11" t="n">
-        <v>380.6978716019342</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F11" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G11" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H11" t="n">
-        <v>278.3004706722211</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I11" t="n">
-        <v>55.98930332975952</v>
+        <v>55.98930332975884</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>104.4293227275021</v>
+        <v>104.4293227275022</v>
       </c>
       <c r="T11" t="n">
-        <v>190.4854774862717</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U11" t="n">
-        <v>224.9909450967469</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V11" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W11" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X11" t="n">
-        <v>367.1380221263989</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y11" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="12">
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>156.3237676037659</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C13" t="n">
-        <v>92.19794998402938</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>118.6124389162599</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="I13" t="n">
-        <v>85.68364371037904</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.92104941501629</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T13" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U13" t="n">
-        <v>250.471224252999</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V13" t="n">
-        <v>241.6479458835352</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W13" t="n">
-        <v>246.7800261198763</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="14">
@@ -1612,22 +1612,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D14" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815315</v>
       </c>
       <c r="E14" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F14" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G14" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H14" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I14" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U14" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V14" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W14" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X14" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y14" t="n">
-        <v>367.4283645950535</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="15">
@@ -1767,25 +1767,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C16" t="n">
-        <v>139.8834969875627</v>
+        <v>122.0148978871482</v>
       </c>
       <c r="D16" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E16" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F16" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G16" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H16" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T16" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>250.4712242529991</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>11.09253915145995</v>
+        <v>206.4614817925755</v>
       </c>
       <c r="Y16" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1849,22 +1849,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D17" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815315</v>
       </c>
       <c r="E17" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F17" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H17" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I17" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T17" t="n">
-        <v>190.4854774862723</v>
+        <v>190.4854774862718</v>
       </c>
       <c r="U17" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V17" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W17" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X17" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y17" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="18">
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C19" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>44.24408127232414</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="H19" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T19" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U19" t="n">
         <v>250.4712242529991</v>
@@ -2064,13 +2064,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X19" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y19" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="20">
@@ -2086,22 +2086,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D20" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E20" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F20" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G20" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H20" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722205</v>
       </c>
       <c r="I20" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U20" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V20" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W20" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X20" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y20" t="n">
-        <v>367.4283645950535</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="21">
@@ -2241,16 +2241,16 @@
         <v>156.323767603766</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>88.04314577169667</v>
       </c>
       <c r="D22" t="n">
-        <v>46.83303310737737</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U22" t="n">
         <v>250.4712242529991</v>
@@ -2307,7 +2307,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D23" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E23" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F23" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G23" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H23" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I23" t="n">
-        <v>55.98930332975957</v>
+        <v>55.98930332975964</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,19 +2374,19 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U23" t="n">
-        <v>224.990945096747</v>
+        <v>224.9909450967471</v>
       </c>
       <c r="V23" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W23" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X23" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y23" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>156.323767603766</v>
       </c>
       <c r="C25" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H25" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T25" t="n">
-        <v>102.9489293585584</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V25" t="n">
         <v>241.6479458835353</v>
@@ -2544,7 +2544,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.9893998987849</v>
+        <v>59.26995652272841</v>
       </c>
     </row>
     <row r="26">
@@ -2572,10 +2572,10 @@
         <v>375.1420595397582</v>
       </c>
       <c r="H26" t="n">
-        <v>278.3004706722205</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I26" t="n">
-        <v>55.98930332975963</v>
+        <v>55.98930332975961</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,7 +2611,7 @@
         <v>190.4854774862718</v>
       </c>
       <c r="U26" t="n">
-        <v>224.9909450967471</v>
+        <v>224.9909450967466</v>
       </c>
       <c r="V26" t="n">
         <v>316.8402373905462</v>
@@ -2715,13 +2715,13 @@
         <v>156.323767603766</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>88.04314577169704</v>
       </c>
       <c r="D28" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>101.0689670315721</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.61243891626</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>85.68364371037916</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>54.92104941501641</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>155.0289087125509</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U28" t="n">
         <v>250.4712242529991</v>
@@ -2781,7 +2781,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="29">
@@ -2797,22 +2797,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D29" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E29" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F29" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G29" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H29" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I29" t="n">
-        <v>55.98930332976053</v>
+        <v>55.98930332975961</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>104.4293227275022</v>
       </c>
       <c r="T29" t="n">
-        <v>190.4854774862718</v>
+        <v>190.4854774862714</v>
       </c>
       <c r="U29" t="n">
         <v>224.990945096747</v>
       </c>
       <c r="V29" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W29" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X29" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>156.323767603766</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D31" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>53.26673783777522</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>133.4858729041767</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.92104941501635</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>155.0289087125508</v>
+        <v>103.188557496685</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U31" t="n">
         <v>250.4712242529991</v>
@@ -3018,7 +3018,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D32" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E32" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F32" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G32" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H32" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I32" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975962</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>224.990945096747</v>
       </c>
       <c r="V32" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W32" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X32" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y32" t="n">
-        <v>367.4283645950535</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="33">
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.13758317985115</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133.4858729041767</v>
+        <v>88.04314577169704</v>
       </c>
       <c r="G34" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>118.6124389162599</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.68364371037912</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U34" t="n">
         <v>250.4712242529991</v>
@@ -3249,13 +3249,13 @@
         <v>241.6479458835353</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>246.7800261198764</v>
       </c>
       <c r="X34" t="n">
         <v>206.4614817925755</v>
       </c>
       <c r="Y34" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="35">
@@ -3271,22 +3271,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D35" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E35" t="n">
         <v>380.6978716019343</v>
       </c>
       <c r="F35" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G35" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H35" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722205</v>
       </c>
       <c r="I35" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975962</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>224.990945096747</v>
       </c>
       <c r="V35" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W35" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X35" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y35" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>139.8834969875627</v>
       </c>
       <c r="D37" t="n">
-        <v>128.4007565039811</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>133.4858729041767</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>250.4712242529991</v>
       </c>
       <c r="V37" t="n">
-        <v>220.2726480253731</v>
+        <v>241.6479458835353</v>
       </c>
       <c r="W37" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X37" t="n">
-        <v>206.4614817925755</v>
+        <v>41.38007983892515</v>
       </c>
       <c r="Y37" t="n">
-        <v>192.9893998987849</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="38">
@@ -3508,22 +3508,22 @@
         <v>376.5244030535246</v>
       </c>
       <c r="D38" t="n">
-        <v>370.920348881532</v>
+        <v>370.9203488815321</v>
       </c>
       <c r="E38" t="n">
-        <v>380.697871601935</v>
+        <v>380.6978716019343</v>
       </c>
       <c r="F38" t="n">
-        <v>387.3211661995113</v>
+        <v>387.3211661995114</v>
       </c>
       <c r="G38" t="n">
-        <v>375.1420595397581</v>
+        <v>375.1420595397582</v>
       </c>
       <c r="H38" t="n">
-        <v>278.3004706722212</v>
+        <v>278.3004706722213</v>
       </c>
       <c r="I38" t="n">
-        <v>55.98930332975958</v>
+        <v>55.98930332975962</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>224.990945096747</v>
       </c>
       <c r="V38" t="n">
-        <v>316.8402373905461</v>
+        <v>316.8402373905462</v>
       </c>
       <c r="W38" t="n">
-        <v>350.4237561298451</v>
+        <v>350.4237561298452</v>
       </c>
       <c r="X38" t="n">
-        <v>367.138022126399</v>
+        <v>367.1380221263991</v>
       </c>
       <c r="Y38" t="n">
-        <v>367.4283645950528</v>
+        <v>367.4283645950529</v>
       </c>
     </row>
     <row r="39">
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>59.64309870642131</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>129.8027652540257</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>54.92104941501636</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>155.0289087125508</v>
+        <v>155.0289087125509</v>
       </c>
       <c r="T40" t="n">
-        <v>207.6543099067269</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U40" t="n">
         <v>250.4712242529991</v>
@@ -3729,7 +3729,7 @@
         <v>206.4614817925755</v>
       </c>
       <c r="Y40" t="n">
-        <v>192.9893998987849</v>
+        <v>141.1490486829193</v>
       </c>
     </row>
     <row r="41">
@@ -3748,7 +3748,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>187.6971066458113</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -3793,16 +3793,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>283.7777510779965</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3906,19 +3906,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>93.44891486807066</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>76.43104772188497</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
@@ -3976,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>198.7217388170288</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>147.0711716152717</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>951.3643326755794</v>
+        <v>1284.773010869747</v>
       </c>
       <c r="C2" t="n">
-        <v>541.2397419888495</v>
+        <v>1278.688824223421</v>
       </c>
       <c r="D2" t="n">
-        <v>540.816216122314</v>
+        <v>874.2248943164814</v>
       </c>
       <c r="E2" t="n">
-        <v>530.5164046796148</v>
+        <v>459.8846788333781</v>
       </c>
       <c r="F2" t="n">
-        <v>513.5263966737064</v>
+        <v>38.85426678706568</v>
       </c>
       <c r="G2" t="n">
-        <v>345.0748840925839</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="H2" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I2" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J2" t="n">
-        <v>118.7312222285946</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="K2" t="n">
-        <v>541.5402578923304</v>
+        <v>456.9754223840384</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5402578923304</v>
+        <v>879.7844580477748</v>
       </c>
       <c r="M2" t="n">
-        <v>541.5402578923304</v>
+        <v>964.3492935560682</v>
       </c>
       <c r="N2" t="n">
-        <v>541.5402578923304</v>
+        <v>964.3492935560682</v>
       </c>
       <c r="O2" t="n">
-        <v>964.3492935560662</v>
+        <v>964.3492935560682</v>
       </c>
       <c r="P2" t="n">
-        <v>1387.158329219802</v>
+        <v>1387.158329219805</v>
       </c>
       <c r="Q2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="R2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="T2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="U2" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="V2" t="n">
-        <v>1358.481781351575</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="W2" t="n">
-        <v>1358.481781351575</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="X2" t="n">
-        <v>1358.481781351575</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="Y2" t="n">
-        <v>957.5451082996648</v>
+        <v>1694.994190534236</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500.0028458641201</v>
+        <v>462.1049995751745</v>
       </c>
       <c r="C3" t="n">
-        <v>366.0077746130658</v>
+        <v>462.1049995751745</v>
       </c>
       <c r="D3" t="n">
-        <v>249.1106168324582</v>
+        <v>462.1049995751745</v>
       </c>
       <c r="E3" t="n">
-        <v>128.6178008247862</v>
+        <v>341.6121835675024</v>
       </c>
       <c r="F3" t="n">
-        <v>128.6178008247862</v>
+        <v>232.652303750007</v>
       </c>
       <c r="G3" t="n">
-        <v>125.6621910643456</v>
+        <v>125.6621910643457</v>
       </c>
       <c r="H3" t="n">
-        <v>54.9149781000617</v>
+        <v>54.91497810006176</v>
       </c>
       <c r="I3" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J3" t="n">
-        <v>34.16638672030188</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="K3" t="n">
-        <v>34.16638672030188</v>
+        <v>456.9754223840384</v>
       </c>
       <c r="L3" t="n">
-        <v>439.8922290238866</v>
+        <v>879.7844580477748</v>
       </c>
       <c r="M3" t="n">
-        <v>439.8922290238866</v>
+        <v>879.7844580477748</v>
       </c>
       <c r="N3" t="n">
-        <v>862.7012646876224</v>
+        <v>1302.593493711511</v>
       </c>
       <c r="O3" t="n">
-        <v>1285.510300351358</v>
+        <v>1302.593493711511</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.319336015094</v>
+        <v>1328.915351968483</v>
       </c>
       <c r="Q3" t="n">
-        <v>1708.319336015094</v>
+        <v>1678.759816652467</v>
       </c>
       <c r="R3" t="n">
-        <v>1708.319336015094</v>
+        <v>1708.319336015097</v>
       </c>
       <c r="S3" t="n">
-        <v>1600.329326129403</v>
+        <v>1600.329326129405</v>
       </c>
       <c r="T3" t="n">
-        <v>1600.329326129403</v>
+        <v>1440.987462316414</v>
       </c>
       <c r="U3" t="n">
-        <v>1402.978515267621</v>
+        <v>1243.636651454632</v>
       </c>
       <c r="V3" t="n">
-        <v>1189.266988260655</v>
+        <v>1029.925124447666</v>
       </c>
       <c r="W3" t="n">
-        <v>976.0338199969839</v>
+        <v>816.6919561839949</v>
       </c>
       <c r="X3" t="n">
-        <v>799.7078381358767</v>
+        <v>640.3659743228877</v>
       </c>
       <c r="Y3" t="n">
-        <v>640.3058784997068</v>
+        <v>480.9640146867177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1101.003898620924</v>
+        <v>836.0608186874811</v>
       </c>
       <c r="C4" t="n">
-        <v>929.9105261826403</v>
+        <v>836.0608186874811</v>
       </c>
       <c r="D4" t="n">
-        <v>770.4158815055503</v>
+        <v>676.566174010391</v>
       </c>
       <c r="E4" t="n">
-        <v>609.5050663738698</v>
+        <v>515.6553588787106</v>
       </c>
       <c r="F4" t="n">
-        <v>444.8739404844611</v>
+        <v>351.0242329893019</v>
       </c>
       <c r="G4" t="n">
-        <v>444.8739404844611</v>
+        <v>183.7738419148453</v>
       </c>
       <c r="H4" t="n">
-        <v>295.2664852899177</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="I4" t="n">
-        <v>178.9204393942438</v>
+        <v>34.16638672030194</v>
       </c>
       <c r="J4" t="n">
-        <v>193.0029887994543</v>
+        <v>48.24893612551246</v>
       </c>
       <c r="K4" t="n">
-        <v>347.5553165216923</v>
+        <v>202.8012638477504</v>
       </c>
       <c r="L4" t="n">
-        <v>607.4524168017529</v>
+        <v>462.698364127811</v>
       </c>
       <c r="M4" t="n">
-        <v>896.7164732422461</v>
+        <v>751.9624205683042</v>
       </c>
       <c r="N4" t="n">
-        <v>1177.555255636496</v>
+        <v>1032.801202962554</v>
       </c>
       <c r="O4" t="n">
-        <v>1437.115865962971</v>
+        <v>1292.361813289029</v>
       </c>
       <c r="P4" t="n">
-        <v>1642.791306212583</v>
+        <v>1498.037253538641</v>
       </c>
       <c r="Q4" t="n">
-        <v>1708.319336015094</v>
+        <v>1563.565283341152</v>
       </c>
       <c r="R4" t="n">
-        <v>1623.046617690494</v>
+        <v>1486.840085833077</v>
       </c>
       <c r="S4" t="n">
-        <v>1436.654849570404</v>
+        <v>1486.840085833077</v>
       </c>
       <c r="T4" t="n">
-        <v>1436.654849570404</v>
+        <v>1486.840085833077</v>
       </c>
       <c r="U4" t="n">
-        <v>1325.739597232159</v>
+        <v>1486.840085833077</v>
       </c>
       <c r="V4" t="n">
-        <v>1325.739597232159</v>
+        <v>1486.840085833077</v>
       </c>
       <c r="W4" t="n">
-        <v>1325.739597232159</v>
+        <v>1486.840085833077</v>
       </c>
       <c r="X4" t="n">
-        <v>1325.739597232159</v>
+        <v>1248.496223692761</v>
       </c>
       <c r="Y4" t="n">
-        <v>1101.003898620924</v>
+        <v>1023.760525081525</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1467.525454856486</v>
+        <v>1292.371709779047</v>
       </c>
       <c r="C5" t="n">
-        <v>1057.400864169756</v>
+        <v>882.247119092317</v>
       </c>
       <c r="D5" t="n">
-        <v>1056.977338303221</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>1046.677526860522</v>
+        <v>467.4833777426783</v>
       </c>
       <c r="F5" t="n">
-        <v>847.7536297919787</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G5" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
         <v>41.76508562960205</v>
@@ -4570,49 +4570,49 @@
         <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M5" t="n">
-        <v>812.7934917636817</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N5" t="n">
-        <v>812.7934917636817</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O5" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1846.479361096332</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>1473.706230480572</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W5" t="n">
-        <v>1473.706230480572</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="X5" t="n">
-        <v>1473.706230480572</v>
+        <v>1337.773328985535</v>
       </c>
       <c r="Y5" t="n">
-        <v>1473.706230480572</v>
+        <v>1298.552485403132</v>
       </c>
     </row>
     <row r="6">
@@ -4625,22 +4625,22 @@
         <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
         <v>41.76508562960205</v>
@@ -4664,10 +4664,10 @@
         <v>1724.070068790184</v>
       </c>
       <c r="P6" t="n">
-        <v>2058.694762117472</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2073.914533474168</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>468.6294018514998</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C7" t="n">
-        <v>468.6294018514998</v>
+        <v>843.6595175967814</v>
       </c>
       <c r="D7" t="n">
-        <v>468.6294018514998</v>
+        <v>684.1648729196913</v>
       </c>
       <c r="E7" t="n">
-        <v>307.7185867198193</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>986.042928482942</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>706.9732639918163</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="X7" t="n">
-        <v>468.6294018514998</v>
+        <v>1292.094317759326</v>
       </c>
       <c r="Y7" t="n">
-        <v>468.6294018514998</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1378.723472461974</v>
+        <v>546.8955794447088</v>
       </c>
       <c r="C8" t="n">
-        <v>1372.639285815648</v>
+        <v>540.8113927983829</v>
       </c>
       <c r="D8" t="n">
-        <v>968.1753559087084</v>
+        <v>540.3878669318475</v>
       </c>
       <c r="E8" t="n">
-        <v>553.8351404256051</v>
+        <v>126.0476514487442</v>
       </c>
       <c r="F8" t="n">
-        <v>132.8047283792926</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959273</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962253</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>1384.904248086059</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W8" t="n">
-        <v>1384.904248086059</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X8" t="n">
-        <v>1384.904248086059</v>
+        <v>954.0130281207041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1384.904248086059</v>
+        <v>553.0763550687942</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811266</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N9" t="n">
-        <v>1054.568412147452</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="O9" t="n">
-        <v>1571.411346813777</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>655.949539715106</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>484.8561672768225</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>325.3615225997325</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>325.3615225997325</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>325.3615225997325</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4989,25 +4989,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1101.974066676486</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1068.384944720386</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1068.384944720386</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.384944720386</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>843.6492461091503</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2340.613014133292</v>
+        <v>2340.613014133291</v>
       </c>
       <c r="C11" t="n">
-        <v>1960.285334281247</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D11" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E11" t="n">
-        <v>1201.075010560574</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F11" t="n">
-        <v>809.8415093489461</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G11" t="n">
-        <v>430.9101360764625</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H11" t="n">
-        <v>149.7985495388647</v>
+        <v>149.7985495388641</v>
       </c>
       <c r="I11" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
         <v>1598.180070079655</v>
@@ -5056,7 +5056,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
         <v>4300.467232046283</v>
@@ -5077,16 +5077,16 @@
         <v>4137.027566035665</v>
       </c>
       <c r="V11" t="n">
-        <v>3816.986922206831</v>
+        <v>3816.98692220683</v>
       </c>
       <c r="W11" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X11" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y11" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M12" t="n">
-        <v>844.5103911440685</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N12" t="n">
-        <v>844.5103911440685</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="O12" t="n">
-        <v>1548.467481689963</v>
+        <v>1615.520903630173</v>
       </c>
       <c r="P12" t="n">
-        <v>2110.173374178493</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q12" t="n">
         <v>2110.173374178493</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.1860997593524</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C13" t="n">
-        <v>437.0568573512419</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="D13" t="n">
-        <v>437.0568573512419</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="E13" t="n">
-        <v>437.0568573512419</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="F13" t="n">
-        <v>437.0568573512419</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="G13" t="n">
-        <v>299.6033771114702</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="H13" t="n">
-        <v>179.7928327516117</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
-        <v>136.530199404908</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K13" t="n">
-        <v>320.2864794362206</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L13" t="n">
-        <v>609.3875320253559</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M13" t="n">
-        <v>927.8555407749238</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N13" t="n">
-        <v>1237.898275478249</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O13" t="n">
-        <v>1526.662838113798</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P13" t="n">
         <v>1761.542230672484</v>
@@ -5223,28 +5223,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R13" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S13" t="n">
-        <v>1644.20354800875</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T13" t="n">
-        <v>1434.451719820137</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.450483200946</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V13" t="n">
-        <v>937.3616489751525</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W13" t="n">
-        <v>688.0888953187118</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X13" t="n">
-        <v>688.0888953187118</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y13" t="n">
-        <v>688.0888953187118</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C14" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D14" t="n">
         <v>1585.618315208991</v>
@@ -5266,10 +5266,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F14" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G14" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H14" t="n">
         <v>149.7985495388648</v>
@@ -5317,10 +5317,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W14" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X14" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y14" t="n">
         <v>2721.037282963095</v>
@@ -5360,19 +5360,19 @@
         <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>286.056555253256</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>524.2254458227151</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>524.2254458227151</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N15" t="n">
-        <v>524.2254458227151</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O15" t="n">
-        <v>1228.182536368609</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P15" t="n">
         <v>1789.888428857139</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>973.9991721489654</v>
+        <v>836.1395377886886</v>
       </c>
       <c r="C16" t="n">
-        <v>832.7027105453667</v>
+        <v>712.8921661855086</v>
       </c>
       <c r="D16" t="n">
-        <v>703.0049767029616</v>
+        <v>583.1944323431034</v>
       </c>
       <c r="E16" t="n">
-        <v>571.8910724059659</v>
+        <v>452.0805280461076</v>
       </c>
       <c r="F16" t="n">
-        <v>437.0568573512421</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="G16" t="n">
-        <v>299.6033771114703</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="H16" t="n">
-        <v>179.7928327516118</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I16" t="n">
         <v>93.2436976906228</v>
@@ -5439,13 +5439,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K16" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L16" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M16" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N16" t="n">
         <v>1237.898275478248</v>
@@ -5460,28 +5460,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R16" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S16" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T16" t="n">
-        <v>1591.046577105541</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="U16" t="n">
-        <v>1338.04534048635</v>
+        <v>1446.678118879473</v>
       </c>
       <c r="V16" t="n">
-        <v>1338.04534048635</v>
+        <v>1202.58928465368</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.04534048635</v>
+        <v>1202.58928465368</v>
       </c>
       <c r="X16" t="n">
-        <v>1326.840755484875</v>
+        <v>994.0423333480483</v>
       </c>
       <c r="Y16" t="n">
-        <v>1131.901967708325</v>
+        <v>994.0423333480483</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C17" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D17" t="n">
         <v>1585.618315208991</v>
@@ -5503,10 +5503,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F17" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G17" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H17" t="n">
         <v>149.7985495388648</v>
@@ -5545,10 +5545,10 @@
         <v>4556.700720159925</v>
       </c>
       <c r="T17" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U17" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V17" t="n">
         <v>3816.98692220683</v>
@@ -5597,25 +5597,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="N18" t="n">
-        <v>1210.13812587521</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O18" t="n">
-        <v>1760.328909494509</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>1760.328909494509</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>533.8759098929697</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C19" t="n">
-        <v>392.579448289371</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="D19" t="n">
-        <v>347.8884571052052</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="E19" t="n">
-        <v>347.8884571052052</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="F19" t="n">
-        <v>213.0542420504813</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="G19" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5676,13 +5676,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K19" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L19" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M19" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N19" t="n">
         <v>1237.898275478248</v>
@@ -5697,28 +5697,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R19" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S19" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T19" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U19" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V19" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W19" t="n">
-        <v>937.361648975152</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X19" t="n">
-        <v>728.8146976695202</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y19" t="n">
-        <v>533.8759098929697</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="20">
@@ -5731,19 +5731,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C20" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D20" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E20" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F20" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G20" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H20" t="n">
         <v>149.7985495388648</v>
@@ -5791,10 +5791,10 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W20" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X20" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y20" t="n">
         <v>2721.037282963095</v>
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M21" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="N21" t="n">
-        <v>966.9017898022406</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="O21" t="n">
-        <v>1198.623017005979</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P21" t="n">
-        <v>1760.328909494509</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>493.0470461511873</v>
+        <v>182.1761681670841</v>
       </c>
       <c r="C22" t="n">
-        <v>493.0470461511873</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>445.7409521033313</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>314.6270478063357</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5913,13 +5913,13 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K22" t="n">
-        <v>320.2864794362205</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L22" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M22" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N22" t="n">
         <v>1237.898275478248</v>
@@ -5934,28 +5934,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R22" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S22" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T22" t="n">
-        <v>1800.798405294154</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U22" t="n">
-        <v>1547.797168674963</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V22" t="n">
-        <v>1303.70833444917</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W22" t="n">
-        <v>1054.435580792729</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X22" t="n">
-        <v>845.8886294870973</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y22" t="n">
-        <v>650.9498417105468</v>
+        <v>340.0789637264437</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1201.075010560573</v>
       </c>
       <c r="F23" t="n">
-        <v>809.8415093489449</v>
+        <v>809.8415093489452</v>
       </c>
       <c r="G23" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H23" t="n">
         <v>149.7985495388648</v>
@@ -5989,10 +5989,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
-        <v>885.588670267417</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L23" t="n">
         <v>1598.180070079655</v>
@@ -6004,7 +6004,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O23" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P23" t="n">
         <v>4300.467232046283</v>
@@ -6016,22 +6016,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T23" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U23" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V23" t="n">
-        <v>3816.98692220683</v>
+        <v>3816.986922206831</v>
       </c>
       <c r="W23" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X23" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y23" t="n">
         <v>2721.037282963096</v>
@@ -6074,19 +6074,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N24" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3291.375279698146</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="C25" t="n">
-        <v>3150.078818094547</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="D25" t="n">
-        <v>3150.078818094547</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="E25" t="n">
-        <v>3018.964913797551</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="F25" t="n">
-        <v>3018.964913797551</v>
+        <v>317.2463129913837</v>
       </c>
       <c r="G25" t="n">
-        <v>3018.964913797551</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="H25" t="n">
-        <v>2899.154369437693</v>
+        <v>179.7928327516119</v>
       </c>
       <c r="I25" t="n">
-        <v>2899.154369437693</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>2942.440871151978</v>
+        <v>136.5301994049079</v>
       </c>
       <c r="K25" t="n">
-        <v>3126.197151183291</v>
+        <v>320.2864794362204</v>
       </c>
       <c r="L25" t="n">
-        <v>3415.298203772426</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M25" t="n">
-        <v>3733.766212521994</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N25" t="n">
-        <v>4043.808947225319</v>
+        <v>1237.898275478248</v>
       </c>
       <c r="O25" t="n">
-        <v>4332.573509860867</v>
+        <v>1526.662838113797</v>
       </c>
       <c r="P25" t="n">
-        <v>4567.452902419554</v>
+        <v>1761.542230672484</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="R25" t="n">
-        <v>4606.709077041224</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S25" t="n">
-        <v>4450.114219755819</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T25" t="n">
-        <v>4346.125402221922</v>
+        <v>1489.927527310051</v>
       </c>
       <c r="U25" t="n">
-        <v>4346.125402221922</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V25" t="n">
-        <v>4102.036567996129</v>
+        <v>992.8374564650669</v>
       </c>
       <c r="W25" t="n">
-        <v>3852.763814339688</v>
+        <v>743.5647028086261</v>
       </c>
       <c r="X25" t="n">
-        <v>3644.216863034056</v>
+        <v>535.0177515029942</v>
       </c>
       <c r="Y25" t="n">
-        <v>3449.278075257505</v>
+        <v>475.1491085507433</v>
       </c>
     </row>
     <row r="26">
@@ -6205,19 +6205,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C26" t="n">
-        <v>1960.285334281245</v>
+        <v>1960.285334281246</v>
       </c>
       <c r="D26" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E26" t="n">
-        <v>1201.075010560572</v>
+        <v>1201.075010560573</v>
       </c>
       <c r="F26" t="n">
-        <v>809.8415093489443</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G26" t="n">
-        <v>430.9101360764613</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H26" t="n">
         <v>149.7985495388648</v>
@@ -6265,13 +6265,13 @@
         <v>3816.98692220683</v>
       </c>
       <c r="W26" t="n">
-        <v>3463.023532176683</v>
+        <v>3463.023532176684</v>
       </c>
       <c r="X26" t="n">
-        <v>3092.17704518032</v>
+        <v>3092.177045180321</v>
       </c>
       <c r="Y26" t="n">
-        <v>2721.037282963095</v>
+        <v>2721.037282963096</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>754.331869609911</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>754.331869609911</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1458.288960155805</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>2019.994852644335</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>531.3909766423324</v>
+        <v>182.1761681670845</v>
       </c>
       <c r="C28" t="n">
-        <v>531.3909766423324</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>401.6932427999271</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>299.6033771114704</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>179.7928327516119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6387,7 +6387,7 @@
         <v>136.5301994049079</v>
       </c>
       <c r="K28" t="n">
-        <v>320.2864794362204</v>
+        <v>320.2864794362205</v>
       </c>
       <c r="L28" t="n">
         <v>609.3875320253555</v>
@@ -6408,28 +6408,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R28" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S28" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T28" t="n">
-        <v>1644.203548008749</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U28" t="n">
-        <v>1391.202311389558</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V28" t="n">
-        <v>1147.113477163765</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W28" t="n">
-        <v>897.8407235073238</v>
+        <v>743.5647028086264</v>
       </c>
       <c r="X28" t="n">
-        <v>689.2937722016919</v>
+        <v>535.0177515029945</v>
       </c>
       <c r="Y28" t="n">
-        <v>689.2937722016919</v>
+        <v>340.078963726444</v>
       </c>
     </row>
     <row r="29">
@@ -6445,19 +6445,19 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D29" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E29" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F29" t="n">
-        <v>809.8415093489459</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G29" t="n">
-        <v>430.9101360764629</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H29" t="n">
-        <v>149.7985495388658</v>
+        <v>149.7985495388648</v>
       </c>
       <c r="I29" t="n">
         <v>93.2436976906228</v>
@@ -6545,19 +6545,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M30" t="n">
-        <v>754.331869609911</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="N30" t="n">
-        <v>1627.989961721529</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>531.3909766423328</v>
+        <v>234.5401592942215</v>
       </c>
       <c r="C31" t="n">
-        <v>531.3909766423328</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>401.6932427999277</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>347.8884571052052</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>213.0542420504813</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
         <v>93.2436976906228</v>
@@ -6627,10 +6627,10 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L31" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M31" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N31" t="n">
         <v>1237.898275478248</v>
@@ -6645,28 +6645,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R31" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S31" t="n">
-        <v>1644.203548008749</v>
+        <v>1752.043346625802</v>
       </c>
       <c r="T31" t="n">
-        <v>1644.203548008749</v>
+        <v>1542.291518437189</v>
       </c>
       <c r="U31" t="n">
-        <v>1391.202311389558</v>
+        <v>1289.290281817998</v>
       </c>
       <c r="V31" t="n">
-        <v>1147.113477163765</v>
+        <v>1045.201447592204</v>
       </c>
       <c r="W31" t="n">
-        <v>897.8407235073241</v>
+        <v>795.9286939357635</v>
       </c>
       <c r="X31" t="n">
-        <v>689.2937722016924</v>
+        <v>587.3817426301316</v>
       </c>
       <c r="Y31" t="n">
-        <v>689.2937722016924</v>
+        <v>392.4429548535811</v>
       </c>
     </row>
     <row r="32">
@@ -6700,10 +6700,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6715,7 +6715,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O32" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P32" t="n">
         <v>4300.467232046283</v>
@@ -6733,16 +6733,16 @@
         <v>4364.291146941469</v>
       </c>
       <c r="U32" t="n">
-        <v>4137.027566035665</v>
+        <v>4137.027566035664</v>
       </c>
       <c r="V32" t="n">
         <v>3816.98692220683</v>
       </c>
       <c r="W32" t="n">
-        <v>3463.023532176684</v>
+        <v>3463.023532176683</v>
       </c>
       <c r="X32" t="n">
-        <v>3092.177045180321</v>
+        <v>3092.17704518032</v>
       </c>
       <c r="Y32" t="n">
         <v>2721.037282963095</v>
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M33" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N33" t="n">
-        <v>1210.13812587521</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>1578.027001052593</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>703.0049767029616</v>
+        <v>182.1761681670845</v>
       </c>
       <c r="C34" t="n">
-        <v>703.0049767029616</v>
+        <v>182.1761681670845</v>
       </c>
       <c r="D34" t="n">
-        <v>703.0049767029616</v>
+        <v>182.1761681670845</v>
       </c>
       <c r="E34" t="n">
-        <v>571.8910724059659</v>
+        <v>182.1761681670845</v>
       </c>
       <c r="F34" t="n">
-        <v>437.0568573512421</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>299.6033771114703</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>179.7928327516118</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
         <v>93.2436976906228</v>
@@ -6864,10 +6864,10 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L34" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M34" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N34" t="n">
         <v>1237.898275478248</v>
@@ -6888,22 +6888,22 @@
         <v>1699.679355498665</v>
       </c>
       <c r="T34" t="n">
-        <v>1699.679355498665</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U34" t="n">
-        <v>1446.678118879474</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V34" t="n">
-        <v>1202.58928465368</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.58928465368</v>
+        <v>743.5647028086264</v>
       </c>
       <c r="X34" t="n">
-        <v>994.0423333480486</v>
+        <v>535.0177515029945</v>
       </c>
       <c r="Y34" t="n">
-        <v>799.1035455714981</v>
+        <v>340.078963726444</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2340.613014133291</v>
       </c>
       <c r="C35" t="n">
-        <v>1960.285334281246</v>
+        <v>1960.285334281245</v>
       </c>
       <c r="D35" t="n">
         <v>1585.618315208991</v>
       </c>
       <c r="E35" t="n">
-        <v>1201.075010560573</v>
+        <v>1201.075010560572</v>
       </c>
       <c r="F35" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489443</v>
       </c>
       <c r="G35" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764613</v>
       </c>
       <c r="H35" t="n">
         <v>149.7985495388648</v>
@@ -6964,13 +6964,13 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4556.700720159924</v>
+        <v>4556.700720159925</v>
       </c>
       <c r="T35" t="n">
-        <v>4364.291146941468</v>
+        <v>4364.291146941469</v>
       </c>
       <c r="U35" t="n">
-        <v>4137.027566035664</v>
+        <v>4137.027566035665</v>
       </c>
       <c r="V35" t="n">
         <v>3816.98692220683</v>
@@ -6982,7 +6982,7 @@
         <v>3092.17704518032</v>
       </c>
       <c r="Y35" t="n">
-        <v>2721.037282963096</v>
+        <v>2721.037282963095</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>704.368908940975</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M36" t="n">
-        <v>704.368908940975</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>767.6394927281179</v>
+        <v>506.8278545887172</v>
       </c>
       <c r="C37" t="n">
-        <v>626.3430311245193</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="D37" t="n">
-        <v>496.6452972821141</v>
+        <v>365.5313929851185</v>
       </c>
       <c r="E37" t="n">
         <v>365.5313929851185</v>
@@ -7101,10 +7101,10 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L37" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M37" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N37" t="n">
         <v>1237.898275478248</v>
@@ -7119,28 +7119,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R37" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S37" t="n">
-        <v>1800.798405294154</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T37" t="n">
-        <v>1800.798405294154</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U37" t="n">
-        <v>1800.798405294154</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V37" t="n">
-        <v>1578.300781026101</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W37" t="n">
-        <v>1329.02802736966</v>
+        <v>743.5647028086264</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.481076064028</v>
+        <v>701.7666423652677</v>
       </c>
       <c r="Y37" t="n">
-        <v>925.5422882874775</v>
+        <v>506.8278545887172</v>
       </c>
     </row>
     <row r="38">
@@ -7156,16 +7156,16 @@
         <v>1960.285334281246</v>
       </c>
       <c r="D38" t="n">
-        <v>1585.618315208992</v>
+        <v>1585.618315208991</v>
       </c>
       <c r="E38" t="n">
         <v>1201.075010560573</v>
       </c>
       <c r="F38" t="n">
-        <v>809.841509348945</v>
+        <v>809.8415093489451</v>
       </c>
       <c r="G38" t="n">
-        <v>430.910136076462</v>
+        <v>430.9101360764621</v>
       </c>
       <c r="H38" t="n">
         <v>149.7985495388648</v>
@@ -7253,28 +7253,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L39" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M39" t="n">
-        <v>754.331869609911</v>
+        <v>286.056555253256</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>494.6659264600851</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R39" t="n">
         <v>2139.732893541123</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>224.3576019876185</v>
+        <v>234.5401592942215</v>
       </c>
       <c r="C40" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>224.3576019876185</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
         <v>93.2436976906228</v>
@@ -7338,10 +7338,10 @@
         <v>320.2864794362205</v>
       </c>
       <c r="L40" t="n">
-        <v>609.3875320253558</v>
+        <v>609.3875320253555</v>
       </c>
       <c r="M40" t="n">
-        <v>927.8555407749236</v>
+        <v>927.8555407749234</v>
       </c>
       <c r="N40" t="n">
         <v>1237.898275478248</v>
@@ -7356,28 +7356,28 @@
         <v>1856.27421278407</v>
       </c>
       <c r="R40" t="n">
-        <v>1800.798405294154</v>
+        <v>1856.27421278407</v>
       </c>
       <c r="S40" t="n">
-        <v>1644.203548008749</v>
+        <v>1699.679355498665</v>
       </c>
       <c r="T40" t="n">
-        <v>1434.451719820136</v>
+        <v>1489.927527310052</v>
       </c>
       <c r="U40" t="n">
-        <v>1181.450483200945</v>
+        <v>1236.92629069086</v>
       </c>
       <c r="V40" t="n">
-        <v>937.361648975152</v>
+        <v>992.8374564650672</v>
       </c>
       <c r="W40" t="n">
-        <v>688.0888953187111</v>
+        <v>743.5647028086264</v>
       </c>
       <c r="X40" t="n">
-        <v>479.5419440130794</v>
+        <v>535.0177515029945</v>
       </c>
       <c r="Y40" t="n">
-        <v>284.6031562365289</v>
+        <v>392.4429548535811</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2324.444211508952</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>1914.319620822223</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1509.855690915283</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
         <v>1320.262653899312</v>
@@ -7441,22 +7441,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U41" t="n">
-        <v>4269.84331758475</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V41" t="n">
-        <v>3920.005762921231</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="W41" t="n">
-        <v>3536.245462056399</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3135.602064225352</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2734.665391173442</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.216283632599</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R42" t="n">
         <v>2139.732893541123</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>785.4715590457869</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>785.4715590457869</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>785.4715590457869</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
         <v>93.2436976906228</v>
@@ -7596,25 +7596,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>1436.250826191383</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>1436.250826191383</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W43" t="n">
-        <v>1436.250826191383</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X43" t="n">
-        <v>1197.906964051067</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y43" t="n">
-        <v>973.1712654398312</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E44" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F44" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G44" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H44" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I44" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K44" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L44" t="n">
         <v>1598.180070079655</v>
@@ -7727,28 +7727,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2110.173374178493</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2110.173374178493</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
         <v>2139.732893541123</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>584.7425299376769</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C46" t="n">
-        <v>413.6491574993933</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D46" t="n">
-        <v>254.1545128223033</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H46" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I46" t="n">
         <v>93.2436976906228</v>
@@ -7833,25 +7833,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>1235.521797083273</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>1235.521797083273</v>
+        <v>951.7389688289743</v>
       </c>
       <c r="W46" t="n">
-        <v>1235.521797083273</v>
+        <v>672.6693043378486</v>
       </c>
       <c r="X46" t="n">
-        <v>997.1779349429565</v>
+        <v>434.325442197532</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.4422363317212</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>158.7426170992602</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>516.2162236769906</v>
+        <v>516.2162236769913</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>522.565232066619</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>178.7092502229984</v>
       </c>
       <c r="N2" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>520.2696096295566</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7291972846576</v>
+        <v>520.7291972846583</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8060,28 +8060,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>482.9056167883896</v>
       </c>
       <c r="L3" t="n">
-        <v>465.9386069457831</v>
+        <v>483.1943578146232</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>480.2732273975235</v>
+        <v>480.2732273975242</v>
       </c>
       <c r="O3" t="n">
-        <v>484.8313130037735</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>481.3394690065772</v>
+        <v>80.84737061590684</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>337.5073157537831</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>293.2845869185513</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P6" t="n">
-        <v>392.2643757374379</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>73.48479305079361</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>537.3610023606261</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>552.9160747585987</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>96.67425672622875</v>
+        <v>562.8045877599699</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>516.2361426485535</v>
@@ -8777,19 +8777,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>356.0091697870508</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>621.6393243851574</v>
+        <v>200.5303479970833</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -9008,10 +9008,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>296.6891607496966</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
@@ -9020,10 +9020,10 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>621.6393243851574</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
@@ -9172,7 +9172,7 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9245,28 +9245,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>53.19339339374999</v>
+        <v>488.5284925170755</v>
       </c>
       <c r="O18" t="n">
-        <v>613.4997452821208</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>291.8133246603422</v>
+        <v>695.0063011010592</v>
       </c>
       <c r="P21" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9722,22 +9722,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9959,22 +9959,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>177.6401345621998</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10193,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>429.1692081600164</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>574.6635313430244</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M33" t="n">
         <v>57.56428373841742</v>
@@ -10442,13 +10442,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>429.3564034215989</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10606,7 +10606,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q35" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,19 +10664,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>213.0023571290849</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
@@ -10685,10 +10685,10 @@
         <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10840,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507342</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>741.5205988334646</v>
+        <v>263.9099299663046</v>
       </c>
       <c r="O39" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>527.9363279870926</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11317,7 +11317,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>575.7963516000154</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>47.68554700353323</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D13" t="n">
-        <v>128.400756503981</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E13" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F13" t="n">
-        <v>133.4858729041766</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>30.5692931445633</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>206.4614817925754</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>17.86859910041453</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S16" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>207.654309906727</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>241.6479458835353</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>246.7800261198764</v>
       </c>
       <c r="X16" t="n">
-        <v>195.3689426411155</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>192.989399898785</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.323767603766</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D19" t="n">
-        <v>84.15667523165695</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E19" t="n">
-        <v>129.8027652540257</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G19" t="n">
-        <v>136.078945437374</v>
+        <v>48.0357996656774</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I19" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>139.8834969875627</v>
+        <v>51.84035121586605</v>
       </c>
       <c r="D22" t="n">
-        <v>81.56772339660371</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G22" t="n">
-        <v>136.078945437374</v>
+        <v>136.0789454373741</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.68364371037919</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S22" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>139.8834969875627</v>
       </c>
       <c r="D25" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F25" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G25" t="n">
-        <v>136.078945437374</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I25" t="n">
-        <v>85.6836437103791</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>54.92104941501642</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>104.7053805481685</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>133.7194433760566</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>139.8834969875627</v>
+        <v>51.84035121586565</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E28" t="n">
-        <v>28.73379822245364</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F28" t="n">
         <v>133.4858729041767</v>
       </c>
       <c r="G28" t="n">
-        <v>136.0789454373741</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>54.92104941501639</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.654309906727</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>192.989399898785</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E31" t="n">
-        <v>76.5360274162505</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>133.4858729041767</v>
       </c>
       <c r="G31" t="n">
         <v>136.078945437374</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>118.6124389162599</v>
       </c>
       <c r="I31" t="n">
-        <v>85.6836437103791</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.92104941501639</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>51.84035121586591</v>
       </c>
       <c r="T31" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>192.9893998987849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>61.18618442391481</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>139.8834969875627</v>
@@ -25083,19 +25083,19 @@
         <v>128.4007565039811</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44272713247965</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>136.078945437374</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>54.92104941501636</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>246.7800261198764</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>156.323767603766</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>128.4007565039811</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I37" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S37" t="n">
-        <v>155.0289087125508</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>207.6543099067269</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>250.4712242529991</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>21.37529785816218</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>165.0814019536503</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>96.68066889734465</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>139.8834969875627</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>128.4007565039811</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>129.8027652540258</v>
       </c>
       <c r="F40" t="n">
         <v>133.4858729041767</v>
@@ -25566,10 +25566,10 @@
         <v>136.078945437374</v>
       </c>
       <c r="H40" t="n">
-        <v>118.6124389162599</v>
+        <v>118.61243891626</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68364371037912</v>
+        <v>85.68364371037916</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>54.9210494150164</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>51.8403512158657</v>
       </c>
     </row>
     <row r="41">
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>222.4997066824609</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25681,16 +25681,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>62.56142803888758</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>65.85279211229306</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,19 +25836,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>194.7158398879883</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26043,7 +26043,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>81.2484271623083</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>124.0757159946016</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>463927.4929164791</v>
+        <v>463927.4929164792</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>651529.5721298278</v>
+        <v>651529.5721298277</v>
       </c>
       <c r="C2" t="n">
         <v>651529.572129828</v>
       </c>
       <c r="D2" t="n">
-        <v>651529.572129828</v>
+        <v>651529.5721298278</v>
       </c>
       <c r="E2" t="n">
         <v>631397.7523692573</v>
       </c>
       <c r="F2" t="n">
-        <v>631397.7523692573</v>
+        <v>631397.7523692574</v>
       </c>
       <c r="G2" t="n">
-        <v>631397.7523692574</v>
+        <v>631397.7523692576</v>
       </c>
       <c r="H2" t="n">
         <v>631397.7523692574</v>
@@ -26337,25 +26337,25 @@
         <v>631397.7523692574</v>
       </c>
       <c r="J2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="K2" t="n">
+        <v>631397.7523692574</v>
+      </c>
+      <c r="L2" t="n">
+        <v>631397.7523692575</v>
+      </c>
+      <c r="M2" t="n">
         <v>631397.7523692573</v>
-      </c>
-      <c r="K2" t="n">
-        <v>631397.7523692576</v>
-      </c>
-      <c r="L2" t="n">
-        <v>631397.7523692573</v>
-      </c>
-      <c r="M2" t="n">
-        <v>631397.7523692575</v>
       </c>
       <c r="N2" t="n">
         <v>631397.7523692576</v>
       </c>
       <c r="O2" t="n">
-        <v>579297.3350701876</v>
+        <v>579297.3350701879</v>
       </c>
       <c r="P2" t="n">
-        <v>579297.3350701876</v>
+        <v>579297.335070188</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143124.2752108466</v>
+        <v>143124.2752108468</v>
       </c>
       <c r="C3" t="n">
-        <v>30686.4608666882</v>
+        <v>30686.46086668798</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215728.9162805136</v>
+        <v>215728.9162805135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>135342.0294691537</v>
+        <v>135342.0294691538</v>
       </c>
       <c r="K3" t="n">
-        <v>24445.77426110956</v>
+        <v>24445.77426110939</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197736.9133466364</v>
+        <v>197736.9133466362</v>
       </c>
       <c r="C4" t="n">
         <v>174432.0962319951</v>
@@ -26426,34 +26426,34 @@
         <v>174432.0962319951</v>
       </c>
       <c r="E4" t="n">
-        <v>60002.64896085229</v>
+        <v>60002.64896085216</v>
       </c>
       <c r="F4" t="n">
-        <v>60002.64896085223</v>
+        <v>60002.64896085215</v>
       </c>
       <c r="G4" t="n">
-        <v>60002.64896085224</v>
+        <v>60002.64896085217</v>
       </c>
       <c r="H4" t="n">
-        <v>60002.64896085224</v>
+        <v>60002.64896085216</v>
       </c>
       <c r="I4" t="n">
-        <v>60002.64896085224</v>
+        <v>60002.64896085216</v>
       </c>
       <c r="J4" t="n">
+        <v>60002.6489608522</v>
+      </c>
+      <c r="K4" t="n">
+        <v>60002.64896085219</v>
+      </c>
+      <c r="L4" t="n">
+        <v>60002.64896085218</v>
+      </c>
+      <c r="M4" t="n">
         <v>60002.64896085217</v>
       </c>
-      <c r="K4" t="n">
-        <v>60002.64896085223</v>
-      </c>
-      <c r="L4" t="n">
-        <v>60002.64896085223</v>
-      </c>
-      <c r="M4" t="n">
-        <v>60002.64896085222</v>
-      </c>
       <c r="N4" t="n">
-        <v>60002.64896085222</v>
+        <v>60002.64896085218</v>
       </c>
       <c r="O4" t="n">
         <v>30192.61954398331</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59594.05390742942</v>
+        <v>59594.05390742946</v>
       </c>
       <c r="C5" t="n">
         <v>65369.06507849755</v>
@@ -26478,7 +26478,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>73345.15677686484</v>
+        <v>73345.15677686482</v>
       </c>
       <c r="F5" t="n">
         <v>73345.15677686482</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251074.3296649155</v>
+        <v>251074.3296649153</v>
       </c>
       <c r="C6" t="n">
-        <v>381041.9499526472</v>
+        <v>381041.9499526474</v>
       </c>
       <c r="D6" t="n">
-        <v>411728.4108193354</v>
+        <v>411728.4108193351</v>
       </c>
       <c r="E6" t="n">
-        <v>282321.0303510265</v>
+        <v>282270.7008016253</v>
       </c>
       <c r="F6" t="n">
-        <v>498049.9466315403</v>
+        <v>497999.617082139</v>
       </c>
       <c r="G6" t="n">
-        <v>498049.9466315403</v>
+        <v>497999.6170821392</v>
       </c>
       <c r="H6" t="n">
-        <v>498049.9466315403</v>
+        <v>497999.617082139</v>
       </c>
       <c r="I6" t="n">
-        <v>498049.9466315403</v>
+        <v>497999.617082139</v>
       </c>
       <c r="J6" t="n">
-        <v>362707.9171623866</v>
+        <v>362657.5876129851</v>
       </c>
       <c r="K6" t="n">
-        <v>473604.1723704311</v>
+        <v>473553.8428210295</v>
       </c>
       <c r="L6" t="n">
-        <v>498049.9466315403</v>
+        <v>497999.6170821391</v>
       </c>
       <c r="M6" t="n">
-        <v>337691.4961308577</v>
+        <v>337641.1665814561</v>
       </c>
       <c r="N6" t="n">
-        <v>498049.9466315406</v>
+        <v>497999.6170821392</v>
       </c>
       <c r="O6" t="n">
-        <v>478239.505281331</v>
+        <v>478058.9246886821</v>
       </c>
       <c r="P6" t="n">
-        <v>478239.505281331</v>
+        <v>478058.9246886823</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K2" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
         <v>522.0635703700256</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="C4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627594</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="K4" t="n">
-        <v>94.98373636625206</v>
+        <v>94.98373636625138</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="E2" t="n">
-        <v>400</v>
-      </c>
-      <c r="F2" t="n">
-        <v>400</v>
-      </c>
-      <c r="G2" t="n">
-        <v>237.8740038107849</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
         <v>85.48824505609757</v>
@@ -27438,7 +27438,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
         <v>379.9226978561831</v>
@@ -27447,7 +27447,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>383.7354122953388</v>
       </c>
     </row>
     <row r="3">
@@ -27457,22 +27457,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>120.2295773488029</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>102.9941578959685</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>8.462045608360455</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>170.164066164475</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -27602,7 +27602,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>400</v>
       </c>
       <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="F5" t="n">
-        <v>219.8854498279915</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>358.0986711748117</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>197.9781375933465</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>133.7430375082081</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>338.0213690309947</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>258.4252165463164</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>237.8936568733337</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>248.9256229449252</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -28089,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y11" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y13" t="n">
-        <v>29.49894172633805</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="14">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y14" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="17">
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y17" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="23">
@@ -29037,28 +29037,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="C25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="D25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="E25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="F25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="G25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="H25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="I25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="J25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="K25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="L25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="M25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="N25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="O25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="P25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="R25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="S25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="T25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="U25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="V25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="W25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="X25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633793</v>
       </c>
     </row>
     <row r="26">
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="R28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="S28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.49894172633794</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="R31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="S31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.498941726338</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="32">
@@ -29748,28 +29748,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y32" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="R34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="S34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y34" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="35">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y35" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="R37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="S37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="C40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="D40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="E40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="F40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="G40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="H40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="I40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="J40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="K40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="L40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="M40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="N40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="O40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="P40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="R40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="S40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="T40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="U40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="V40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="W40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="X40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.49894172633799</v>
+        <v>29.49894172633795</v>
       </c>
     </row>
     <row r="41">
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>85.41902576595226</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>85.41902576595294</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>427.0798340037735</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34780,28 +34780,28 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="L3" t="n">
-        <v>409.8240831349341</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>427.0798340037735</v>
+        <v>427.0798340037742</v>
       </c>
       <c r="O3" t="n">
-        <v>427.0798340037735</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>427.0798340037735</v>
+        <v>26.5877356131031</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P6" t="n">
-        <v>338.0047407346341</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>14.48459394538821</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>40.55973291537969</v>
+        <v>506.6900639491208</v>
       </c>
       <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
       <c r="O9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>460.4103598639381</v>
@@ -35497,19 +35497,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>298.4448860486334</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>567.3796893823536</v>
+        <v>146.2707129942796</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>43.72373910533858</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K13" t="n">
-        <v>185.612404072033</v>
+        <v>185.6124040720329</v>
       </c>
       <c r="L13" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M13" t="n">
-        <v>321.6848573227959</v>
+        <v>321.6848573227958</v>
       </c>
       <c r="N13" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O13" t="n">
-        <v>291.6813763995443</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P13" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.68887081978335</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,10 +35728,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>240.5746369388475</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,10 +35740,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>567.3796893823536</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K16" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L16" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M16" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N16" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O16" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P16" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q16" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35965,28 +35965,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>435.3350991233255</v>
       </c>
       <c r="O18" t="n">
-        <v>555.7482662821208</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K19" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L19" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M19" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N19" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O19" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P19" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q19" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>234.0618456603422</v>
+        <v>637.2548221010592</v>
       </c>
       <c r="P21" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K22" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L22" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M22" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N22" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O22" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P22" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q22" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533845</v>
       </c>
       <c r="K25" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L25" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M25" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N25" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O25" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P25" t="n">
-        <v>237.2519116754414</v>
+        <v>237.2519116754413</v>
       </c>
       <c r="Q25" t="n">
-        <v>95.68887081978329</v>
+        <v>95.6888708197832</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36679,22 +36679,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>120.947516057361</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>43.72373910533847</v>
+        <v>43.72373910533848</v>
       </c>
       <c r="K28" t="n">
         <v>185.6124040720329</v>
@@ -36770,7 +36770,7 @@
         <v>291.6813763995441</v>
       </c>
       <c r="P28" t="n">
-        <v>237.2519116754413</v>
+        <v>237.2519116754414</v>
       </c>
       <c r="Q28" t="n">
         <v>95.68887081978323</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>371.6049244215989</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>516.9120523430244</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533848</v>
       </c>
       <c r="K31" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L31" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M31" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N31" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O31" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P31" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q31" t="n">
-        <v>95.68887081978329</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -37162,13 +37162,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>371.6049244215989</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533848</v>
       </c>
       <c r="K34" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L34" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M34" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N34" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O34" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P34" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q34" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q35" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>156.8878333182358</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>567.3796893823536</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533848</v>
       </c>
       <c r="K37" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L37" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M37" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N37" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O37" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P37" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q37" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698501</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>688.3272054397147</v>
+        <v>210.7165365725546</v>
       </c>
       <c r="O39" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>43.72373910533852</v>
+        <v>43.72373910533848</v>
       </c>
       <c r="K40" t="n">
         <v>185.6124040720329</v>
       </c>
       <c r="L40" t="n">
-        <v>292.0212652415507</v>
+        <v>292.0212652415506</v>
       </c>
       <c r="M40" t="n">
         <v>321.6848573227958</v>
       </c>
       <c r="N40" t="n">
-        <v>313.174479498308</v>
+        <v>313.1744794983079</v>
       </c>
       <c r="O40" t="n">
-        <v>291.6813763995442</v>
+        <v>291.6813763995441</v>
       </c>
       <c r="P40" t="n">
         <v>237.2519116754414</v>
       </c>
       <c r="Q40" t="n">
-        <v>95.68887081978328</v>
+        <v>95.68887081978323</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>474.7429345933426</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38037,7 +38037,7 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>518.0448726000154</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
